--- a/crabs/decision-trees-data/crabs-graphics_DTs.xlsx
+++ b/crabs/decision-trees-data/crabs-graphics_DTs.xlsx
@@ -5,19 +5,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pmorvalho/Dropbox/1ºSemestre/SAD/Project/SAD_P2/crabs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pmorvalho/Dropbox/1ºSemestre/SAD/Project/SAD_P2/crabs/decision-trees-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16300" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16300" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="min_num_leaf" sheetId="1" r:id="rId1"/>
     <sheet name="min_sample_node" sheetId="2" r:id="rId2"/>
     <sheet name="min_samples_nodes_leaf" sheetId="3" r:id="rId3"/>
+    <sheet name="accuracy-size" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'accuracy-size'!$A$1:$B$4999</definedName>
+    <definedName name="dt_size_1" localSheetId="3">'accuracy-size'!$A$1:$B$4999</definedName>
+    <definedName name="dt_size_2" localSheetId="3">'accuracy-size'!$A$1:$B$99</definedName>
     <definedName name="min_leaf_1" localSheetId="0">min_num_leaf!$A$1:$B$40</definedName>
+    <definedName name="min_nodes" localSheetId="0">min_num_leaf!$C$1:$D$49</definedName>
     <definedName name="min_nodes" localSheetId="1">min_sample_node!$A$1:$B$49</definedName>
     <definedName name="min_nodes_leaf_1" localSheetId="2">min_samples_nodes_leaf!$A$2:$AD$11</definedName>
   </definedNames>
@@ -35,7 +40,23 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="min_leaf" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="1" name="dt_size" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="/Users/pmorvalho/Dropbox/1ºSemestre/SAD/Project/SAD_P2/crabs/dt_size.csv" decimal="," thousands=" ">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="dt_size1" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="/Users/pmorvalho/Dropbox/1ºSemestre/SAD/Project/SAD_P2/noshows/dt_size.csv" decimal="," thousands=" ">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" name="min_leaf" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/pmorvalho/Dropbox/1ºSemestre/SAD/Project/SAD_P2/crabs/min_leaf.csv" decimal="," thousands=" ">
       <textFields count="2">
         <textField/>
@@ -43,7 +64,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="min_nodes" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="4" name="min_nodes" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/pmorvalho/Dropbox/1ºSemestre/SAD/Project/SAD_P2/crabs/min_nodes.csv" decimal="," thousands=" ">
       <textFields count="2">
         <textField/>
@@ -51,7 +72,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="min_nodes_leaf" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="5" name="min_nodes_leaf" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/pmorvalho/Dropbox/1ºSemestre/SAD/Project/SAD_P2/crabs/min_nodes_leaf.csv" decimal="," thousands=" ">
       <textFields count="30">
         <textField/>
@@ -82,6 +103,14 @@
         <textField/>
         <textField/>
         <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="6" name="min_nodes1" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="/Users/pmorvalho/Dropbox/1ºSemestre/SAD/Project/SAD_P2/crabs/min_nodes.csv" decimal="," thousands=" ">
+      <textFields count="2">
         <textField/>
         <textField/>
       </textFields>
@@ -171,8 +200,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>min_samples_leaf</a:t>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Minimum Samples</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -503,6 +532,350 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>min_samples_nodes</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>min_num_leaf!$C:$C</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>50.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>min_num_leaf!$D:$D</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.816666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.816666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.766666666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.766666666667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.833333333333</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.766666666667</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.683333333333</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.783333333333</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.783333333333</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.766666666667</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.766666666667</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.783333333333</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.783333333333</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.733333333333</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.783333333333</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.733333333333</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.733333333333</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.783333333333</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.783333333333</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.733333333333</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.783333333333</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.783333333333</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.733333333333</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.783333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -511,11 +884,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1602181200"/>
-        <c:axId val="1475456640"/>
+        <c:axId val="789249312"/>
+        <c:axId val="796126064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1602181200"/>
+        <c:axId val="789249312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -556,11 +929,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>min_samples leaf</a:t>
+                  <a:t>Minimum</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> </a:t>
+                  <a:t> Samples</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -632,15 +1005,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1475456640"/>
+        <c:crossAx val="796126064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1475456640"/>
+        <c:axId val="796126064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.6"/>
+          <c:max val="1.0"/>
+          <c:min val="0.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -679,7 +1053,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>precision</a:t>
+                  <a:t>Accuracy</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -751,7 +1125,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1602181200"/>
+        <c:crossAx val="789249312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -763,6 +1137,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -815,7 +1221,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1203,11 +1608,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1593927472"/>
-        <c:axId val="1594398112"/>
+        <c:axId val="789259328"/>
+        <c:axId val="789262448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1593927472"/>
+        <c:axId val="789259328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1257,7 +1662,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1323,12 +1727,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1594398112"/>
+        <c:crossAx val="789262448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1594398112"/>
+        <c:axId val="789262448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.6"/>
@@ -1375,7 +1779,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1442,7 +1845,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1593927472"/>
+        <c:crossAx val="789259328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1525,14 +1928,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>min_samples</a:t>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Minimum samples</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> nodes vs leafs</a:t>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> in nodes with mininimum samples in leafs</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2035,11 +2438,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1488747952"/>
-        <c:axId val="1488751856"/>
+        <c:axId val="789293696"/>
+        <c:axId val="796063456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1488747952"/>
+        <c:axId val="789293696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2080,7 +2483,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>min_samples_leaf</a:t>
+                  <a:t>Minimum Samples in Leafs</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2152,15 +2555,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1488751856"/>
+        <c:crossAx val="796063456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1488751856"/>
+        <c:axId val="796063456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.6"/>
+          <c:max val="1.0"/>
+          <c:min val="0.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2199,7 +2603,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>accuracy</a:t>
+                  <a:t>Accuracy</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2270,7 +2674,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1488747952"/>
+        <c:crossAx val="789293696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2314,6 +2718,1027 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Size of Tree</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>size</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'accuracy-size'!$A:$A</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>35.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'accuracy-size'!$B:$B</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>0.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.733333333333</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.733333333333</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.733333333333</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.783333333333</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.783333333333</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.733333333333</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.783333333333</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.733333333333</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.783333333333</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.733333333333</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.733333333333</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.783333333333</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.733333333333</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.783333333333</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.733333333333</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.783333333333</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.733333333333</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.783333333333</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.733333333333</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.783333333333</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.733333333333</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.733333333333</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.733333333333</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.783333333333</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.783333333333</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.733333333333</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.783333333333</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.733333333333</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.766666666667</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.766666666667</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.766666666667</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.733333333333</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.783333333333</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.733333333333</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.833333333333</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.816666666667</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.766666666667</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.733333333333</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.783333333333</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="789328992"/>
+        <c:axId val="789332752"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="789328992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Size of tree </a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>(number of nodes)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="789332752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="789332752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="789328992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2471,6 +3896,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3504,6 +4969,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4124,16 +6105,63 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133864</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>91531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>652162</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>158807</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="min_leaf_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="min_leaf_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="min_nodes" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="min_nodes" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="min_nodes_leaf_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="min_nodes" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="min_nodes_leaf_1" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="dt_size_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="dt_size_2" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4399,10 +6427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4413,324 +6441,636 @@
     <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2">
         <v>0.83333333333299997</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3">
         <v>0.86666666666699999</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>0.81666666666700005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4">
         <v>0.78333333333300004</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="B5">
         <v>0.76666666666700001</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0.81666666666700005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
       <c r="B6">
         <v>0.73333333333299999</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0.76666666666700001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7">
         <v>0.68333333333299995</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8</v>
       </c>
       <c r="B8">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>0.76666666666700001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9</v>
       </c>
       <c r="B9">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10</v>
       </c>
       <c r="B10">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>0.83333333333299997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>11</v>
       </c>
       <c r="B11">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>0.76666666666700001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>12</v>
       </c>
       <c r="B12">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>0.68333333333299995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>13</v>
       </c>
       <c r="B13">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <v>14</v>
+      </c>
+      <c r="D13">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>14</v>
       </c>
       <c r="B14">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <v>0.78333333333300004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>15</v>
       </c>
       <c r="B15">
         <v>0.73333333333299999</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <v>16</v>
+      </c>
+      <c r="D15">
+        <v>0.78333333333300004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>16</v>
       </c>
       <c r="B16">
         <v>0.78333333333300004</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <v>17</v>
+      </c>
+      <c r="D16">
+        <v>0.76666666666700001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>17</v>
       </c>
       <c r="B17">
         <v>0.78333333333300004</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <v>18</v>
+      </c>
+      <c r="D17">
+        <v>0.76666666666700001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>18</v>
       </c>
       <c r="B18">
         <v>0.78333333333300004</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <v>19</v>
+      </c>
+      <c r="D18">
+        <v>0.71666666666699996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>19</v>
       </c>
       <c r="B19">
         <v>0.73333333333299999</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>20</v>
       </c>
       <c r="B20">
         <v>0.78333333333300004</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <v>21</v>
+      </c>
+      <c r="D20">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>21</v>
       </c>
       <c r="B21">
         <v>0.73333333333299999</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <v>22</v>
+      </c>
+      <c r="D21">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>22</v>
       </c>
       <c r="B22">
         <v>0.73333333333299999</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>23</v>
+      </c>
+      <c r="D22">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>23</v>
       </c>
       <c r="B23">
         <v>0.76666666666700001</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <v>24</v>
+      </c>
+      <c r="D23">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>24</v>
       </c>
       <c r="B24">
         <v>0.76666666666700001</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <v>25</v>
+      </c>
+      <c r="D24">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>25</v>
       </c>
       <c r="B25">
         <v>0.81666666666700005</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <v>26</v>
+      </c>
+      <c r="D25">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>26</v>
       </c>
       <c r="B26">
         <v>0.81666666666700005</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <v>27</v>
+      </c>
+      <c r="D26">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>27</v>
       </c>
       <c r="B27">
         <v>0.76666666666700001</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <v>28</v>
+      </c>
+      <c r="D27">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>28</v>
       </c>
       <c r="B28">
         <v>0.83333333333299997</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C28">
+        <v>29</v>
+      </c>
+      <c r="D28">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>29</v>
       </c>
       <c r="B29">
         <v>0.81666666666700005</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C29">
+        <v>30</v>
+      </c>
+      <c r="D29">
+        <v>0.71666666666699996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>30</v>
       </c>
       <c r="B30">
         <v>0.81666666666700005</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C30">
+        <v>31</v>
+      </c>
+      <c r="D30">
+        <v>0.71666666666699996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>31</v>
       </c>
       <c r="B31">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <v>32</v>
+      </c>
+      <c r="D31">
+        <v>0.71666666666699996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>32</v>
       </c>
       <c r="B32">
         <v>0.66666666666700003</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <v>33</v>
+      </c>
+      <c r="D32">
+        <v>0.66666666666700003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>33</v>
       </c>
       <c r="B33">
         <v>0.66666666666700003</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C33">
+        <v>34</v>
+      </c>
+      <c r="D33">
+        <v>0.66666666666700003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>34</v>
       </c>
       <c r="B34">
         <v>0.66666666666700003</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <v>35</v>
+      </c>
+      <c r="D34">
+        <v>0.71666666666699996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>35</v>
       </c>
       <c r="B35">
         <v>0.66666666666700003</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C35">
+        <v>36</v>
+      </c>
+      <c r="D35">
+        <v>0.66666666666700003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>36</v>
       </c>
       <c r="B36">
         <v>0.66666666666700003</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C36">
+        <v>37</v>
+      </c>
+      <c r="D36">
+        <v>0.66666666666700003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>37</v>
       </c>
       <c r="B37">
         <v>0.66666666666700003</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C37">
+        <v>38</v>
+      </c>
+      <c r="D37">
+        <v>0.78333333333300004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>38</v>
       </c>
       <c r="B38">
         <v>0.66666666666700003</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C38">
+        <v>39</v>
+      </c>
+      <c r="D38">
+        <v>0.78333333333300004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>39</v>
       </c>
       <c r="B39">
         <v>0.66666666666700003</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C39">
+        <v>40</v>
+      </c>
+      <c r="D39">
+        <v>0.73333333333299999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>40</v>
       </c>
       <c r="B40">
         <v>0.66666666666700003</v>
+      </c>
+      <c r="C40">
+        <v>41</v>
+      </c>
+      <c r="D40">
+        <v>0.78333333333300004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C41">
+        <v>42</v>
+      </c>
+      <c r="D41">
+        <v>0.73333333333299999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C42">
+        <v>43</v>
+      </c>
+      <c r="D42">
+        <v>0.73333333333299999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C43">
+        <v>44</v>
+      </c>
+      <c r="D43">
+        <v>0.78333333333300004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C44">
+        <v>45</v>
+      </c>
+      <c r="D44">
+        <v>0.78333333333300004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C45">
+        <v>46</v>
+      </c>
+      <c r="D45">
+        <v>0.73333333333299999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C46">
+        <v>47</v>
+      </c>
+      <c r="D46">
+        <v>0.78333333333300004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C47">
+        <v>48</v>
+      </c>
+      <c r="D47">
+        <v>0.78333333333300004</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C48">
+        <v>49</v>
+      </c>
+      <c r="D48">
+        <v>0.73333333333299999</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C49">
+        <v>50</v>
+      </c>
+      <c r="D49">
+        <v>0.78333333333300004</v>
       </c>
     </row>
   </sheetData>
@@ -4744,7 +7084,7 @@
   <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection sqref="A1:B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5155,7 +7495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:X11"/>
   <sheetViews>
-    <sheetView topLeftCell="C11" zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="E7" zoomScale="125" workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
@@ -5541,4 +7881,823 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B99"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>3</v>
+      </c>
+      <c r="B1">
+        <v>0.66666666666700003</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>0.66666666666700003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>0.66666666666700003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.66666666666700003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.66666666666700003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>0.66666666666700003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>0.66666666666700003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>0.66666666666700003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>0.66666666666700003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>0.66666666666700003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>0.66666666666700003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>0.66666666666700003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>0.66666666666700003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>0.66666666666700003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>0.66666666666700003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>0.66666666666700003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>0.66666666666700003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>0.66666666666700003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>0.66666666666700003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>0.66666666666700003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>0.66666666666700003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>0.66666666666700003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>0.66666666666700003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>0.66666666666700003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>0.66666666666700003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>0.66666666666700003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>0.66666666666700003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>0.66666666666700003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>0.66666666666700003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>0.66666666666700003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>0.66666666666700003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>5</v>
+      </c>
+      <c r="B32">
+        <v>0.66666666666700003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <v>0.66666666666700003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>5</v>
+      </c>
+      <c r="B34">
+        <v>0.66666666666700003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>0.66666666666700003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>5</v>
+      </c>
+      <c r="B36">
+        <v>0.66666666666700003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>7</v>
+      </c>
+      <c r="B37">
+        <v>0.73333333333299999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>7</v>
+      </c>
+      <c r="B38">
+        <v>0.73333333333299999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>7</v>
+      </c>
+      <c r="B39">
+        <v>0.73333333333299999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>7</v>
+      </c>
+      <c r="B40">
+        <v>0.78333333333300004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>7</v>
+      </c>
+      <c r="B41">
+        <v>0.78333333333300004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>7</v>
+      </c>
+      <c r="B42">
+        <v>0.73333333333299999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>7</v>
+      </c>
+      <c r="B43">
+        <v>0.78333333333300004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>7</v>
+      </c>
+      <c r="B44">
+        <v>0.73333333333299999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>7</v>
+      </c>
+      <c r="B45">
+        <v>0.78333333333300004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>7</v>
+      </c>
+      <c r="B46">
+        <v>0.73333333333299999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>7</v>
+      </c>
+      <c r="B47">
+        <v>0.73333333333299999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>7</v>
+      </c>
+      <c r="B48">
+        <v>0.78333333333300004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>7</v>
+      </c>
+      <c r="B49">
+        <v>0.73333333333299999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>7</v>
+      </c>
+      <c r="B50">
+        <v>0.78333333333300004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>7</v>
+      </c>
+      <c r="B51">
+        <v>0.73333333333299999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>7</v>
+      </c>
+      <c r="B52">
+        <v>0.78333333333300004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>7</v>
+      </c>
+      <c r="B53">
+        <v>0.73333333333299999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>7</v>
+      </c>
+      <c r="B54">
+        <v>0.78333333333300004</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>7</v>
+      </c>
+      <c r="B55">
+        <v>0.73333333333299999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>9</v>
+      </c>
+      <c r="B56">
+        <v>0.78333333333300004</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>9</v>
+      </c>
+      <c r="B57">
+        <v>0.73333333333299999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>9</v>
+      </c>
+      <c r="B58">
+        <v>0.73333333333299999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>11</v>
+      </c>
+      <c r="B59">
+        <v>0.73333333333299999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>11</v>
+      </c>
+      <c r="B60">
+        <v>0.78333333333300004</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>11</v>
+      </c>
+      <c r="B61">
+        <v>0.78333333333300004</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>11</v>
+      </c>
+      <c r="B62">
+        <v>0.73333333333299999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>11</v>
+      </c>
+      <c r="B63">
+        <v>0.78333333333300004</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>11</v>
+      </c>
+      <c r="B64">
+        <v>0.73333333333299999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>11</v>
+      </c>
+      <c r="B65">
+        <v>0.71666666666699996</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>11</v>
+      </c>
+      <c r="B66">
+        <v>0.71666666666699996</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>11</v>
+      </c>
+      <c r="B67">
+        <v>0.71666666666699996</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>13</v>
+      </c>
+      <c r="B68">
+        <v>0.66666666666700003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>13</v>
+      </c>
+      <c r="B69">
+        <v>0.66666666666700003</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>13</v>
+      </c>
+      <c r="B70">
+        <v>0.71666666666699996</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>13</v>
+      </c>
+      <c r="B71">
+        <v>0.71666666666699996</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>13</v>
+      </c>
+      <c r="B72">
+        <v>0.71666666666699996</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>17</v>
+      </c>
+      <c r="B73">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>17</v>
+      </c>
+      <c r="B74">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>17</v>
+      </c>
+      <c r="B75">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>17</v>
+      </c>
+      <c r="B76">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>17</v>
+      </c>
+      <c r="B77">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>17</v>
+      </c>
+      <c r="B78">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>17</v>
+      </c>
+      <c r="B79">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>19</v>
+      </c>
+      <c r="B80">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>19</v>
+      </c>
+      <c r="B81">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>19</v>
+      </c>
+      <c r="B82">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>21</v>
+      </c>
+      <c r="B83">
+        <v>0.76666666666700001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>21</v>
+      </c>
+      <c r="B84">
+        <v>0.76666666666700001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>21</v>
+      </c>
+      <c r="B85">
+        <v>0.76666666666700001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>21</v>
+      </c>
+      <c r="B86">
+        <v>0.73333333333299999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>21</v>
+      </c>
+      <c r="B87">
+        <v>0.78333333333300004</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>23</v>
+      </c>
+      <c r="B88">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>23</v>
+      </c>
+      <c r="B89">
+        <v>0.73333333333299999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>25</v>
+      </c>
+      <c r="B90">
+        <v>0.71666666666699996</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>27</v>
+      </c>
+      <c r="B91">
+        <v>0.83333333333299997</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>29</v>
+      </c>
+      <c r="B92">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>29</v>
+      </c>
+      <c r="B93">
+        <v>0.81666666666700005</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>29</v>
+      </c>
+      <c r="B94">
+        <v>0.76666666666700001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>31</v>
+      </c>
+      <c r="B95">
+        <v>0.73333333333299999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>33</v>
+      </c>
+      <c r="B96">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>33</v>
+      </c>
+      <c r="B97">
+        <v>0.78333333333300004</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>33</v>
+      </c>
+      <c r="B98">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>35</v>
+      </c>
+      <c r="B99">
+        <v>0.85</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B4999">
+    <sortState ref="A2:B4999">
+      <sortCondition ref="A1:A4999"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/crabs/decision-trees-data/crabs-graphics_DTs.xlsx
+++ b/crabs/decision-trees-data/crabs-graphics_DTs.xlsx
@@ -9,22 +9,25 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16300" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16300" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="min_num_leaf" sheetId="1" r:id="rId1"/>
-    <sheet name="min_sample_node" sheetId="2" r:id="rId2"/>
-    <sheet name="min_samples_nodes_leaf" sheetId="3" r:id="rId3"/>
-    <sheet name="accuracy-size" sheetId="4" r:id="rId4"/>
+    <sheet name="min_samples_nodes_leaf" sheetId="3" r:id="rId2"/>
+    <sheet name="accuracy-size" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'accuracy-size'!$A$1:$B$4999</definedName>
-    <definedName name="dt_size_1" localSheetId="3">'accuracy-size'!$A$1:$B$4999</definedName>
-    <definedName name="dt_size_2" localSheetId="3">'accuracy-size'!$A$1:$B$99</definedName>
-    <definedName name="min_leaf_1" localSheetId="0">min_num_leaf!$A$1:$B$40</definedName>
-    <definedName name="min_nodes" localSheetId="0">min_num_leaf!$C$1:$D$49</definedName>
-    <definedName name="min_nodes" localSheetId="1">min_sample_node!$A$1:$B$49</definedName>
-    <definedName name="min_nodes_leaf_1" localSheetId="2">min_samples_nodes_leaf!$A$2:$AD$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'accuracy-size'!$A$1:$B$4999</definedName>
+    <definedName name="dt_size" localSheetId="2">'accuracy-size'!#REF!</definedName>
+    <definedName name="dt_size_1" localSheetId="2">'accuracy-size'!$A$1:$B$4999</definedName>
+    <definedName name="dt_size_2" localSheetId="2">'accuracy-size'!#REF!</definedName>
+    <definedName name="dt_size_3" localSheetId="2">'accuracy-size'!$A$1:$B$99</definedName>
+    <definedName name="min_leaf" localSheetId="0">min_num_leaf!$A$1:$B$50</definedName>
+    <definedName name="min_leaf_1" localSheetId="0">min_num_leaf!#REF!</definedName>
+    <definedName name="min_nodes" localSheetId="0">min_num_leaf!#REF!</definedName>
+    <definedName name="min_nodes_1" localSheetId="0">min_num_leaf!$C$1:$D$49</definedName>
+    <definedName name="min_nodes_leaf_1" localSheetId="1">min_samples_nodes_leaf!$A$2:$AD$11</definedName>
+    <definedName name="min_nodes_leaf_2" localSheetId="1">min_samples_nodes_leaf!$AD$15:$AR$19</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -56,7 +59,23 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="min_leaf" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="3" name="dt_size2" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="/Users/pmorvalho/Dropbox/1ºSemestre/SAD/Project/SAD_P2/crabs/decision-trees-data/dt_size.csv" decimal="," thousands=" ">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="4" name="dt_size3" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="/Users/pmorvalho/Dropbox/1ºSemestre/SAD/Project/SAD_P2/crabs/decision-trees-data/dt_size.csv" decimal="," thousands=" ">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="5" name="min_leaf" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/pmorvalho/Dropbox/1ºSemestre/SAD/Project/SAD_P2/crabs/min_leaf.csv" decimal="," thousands=" ">
       <textFields count="2">
         <textField/>
@@ -64,15 +83,15 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" name="min_nodes" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" sourceFile="/Users/pmorvalho/Dropbox/1ºSemestre/SAD/Project/SAD_P2/crabs/min_nodes.csv" decimal="," thousands=" ">
+  <connection id="6" name="min_leaf1" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="/Users/pmorvalho/Dropbox/1ºSemestre/SAD/Project/SAD_P2/crabs/decision-trees-data/min_leaf.csv" decimal="," thousands=" ">
       <textFields count="2">
         <textField/>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" name="min_nodes_leaf" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="7" name="min_nodes_leaf" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/pmorvalho/Dropbox/1ºSemestre/SAD/Project/SAD_P2/crabs/min_nodes_leaf.csv" decimal="," thousands=" ">
       <textFields count="30">
         <textField/>
@@ -108,8 +127,37 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="6" name="min_nodes1" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="8" name="min_nodes_leaf1" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="/Users/pmorvalho/Dropbox/1ºSemestre/SAD/Project/SAD_P2/crabs/decision-trees-data/min_nodes_leaf.csv" decimal="," thousands=" ">
+      <textFields count="15">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="9" name="min_nodes1" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/pmorvalho/Dropbox/1ºSemestre/SAD/Project/SAD_P2/crabs/min_nodes.csv" decimal="," thousands=" ">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="10" name="min_nodes2" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="/Users/pmorvalho/Dropbox/1ºSemestre/SAD/Project/SAD_P2/crabs/decision-trees-data/min_nodes.csv" decimal="," thousands=" ">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -121,10 +169,33 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -147,13 +218,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -398,6 +478,36 @@
                 <c:pt idx="39">
                   <c:v>40.0</c:v>
                 </c:pt>
+                <c:pt idx="40">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -408,40 +518,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048576"/>
                 <c:pt idx="0">
-                  <c:v>0.8</c:v>
+                  <c:v>0.816666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.833333333333</c:v>
+                  <c:v>0.816666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.866666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.783333333333</c:v>
+                  <c:v>0.833333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.766666666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.733333333333</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.683333333333</c:v>
+                  <c:v>0.666666666667</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0.65</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.7</c:v>
@@ -450,49 +560,49 @@
                   <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.733333333333</c:v>
+                  <c:v>0.783333333333</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.783333333333</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>0.733333333333</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.733333333333</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0.783333333333</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
+                  <c:v>0.733333333333</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0.783333333333</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.733333333333</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.783333333333</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.733333333333</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.733333333333</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.766666666667</c:v>
+                  <c:v>0.816666666667</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0.766666666667</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.816666666667</c:v>
+                  <c:v>0.766666666667</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.816666666667</c:v>
+                  <c:v>0.766666666667</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.766666666667</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.833333333333</c:v>
+                  <c:v>0.716666666667</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.816666666667</c:v>
+                  <c:v>0.766666666667</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0.816666666667</c:v>
@@ -525,6 +635,36 @@
                   <c:v>0.666666666667</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>0.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>0.666666666667</c:v>
                 </c:pt>
               </c:numCache>
@@ -725,49 +865,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048576"/>
                 <c:pt idx="0">
+                  <c:v>0.833333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.866666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.816666666667</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.75</c:v>
+                  <c:v>0.766666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.816666666667</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.766666666667</c:v>
+                  <c:v>0.733333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.766666666667</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.85</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.833333333333</c:v>
+                  <c:v>0.783333333333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.766666666667</c:v>
+                  <c:v>0.716666666667</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.683333333333</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.7</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.783333333333</c:v>
+                  <c:v>0.733333333333</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.783333333333</c:v>
+                  <c:v>0.733333333333</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.766666666667</c:v>
@@ -776,10 +916,10 @@
                   <c:v>0.766666666667</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.716666666667</c:v>
+                  <c:v>0.766666666667</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.65</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.7</c:v>
@@ -797,7 +937,7 @@
                   <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.7</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.65</c:v>
@@ -812,7 +952,7 @@
                   <c:v>0.716666666667</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.716666666667</c:v>
+                  <c:v>0.666666666667</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.716666666667</c:v>
@@ -833,40 +973,40 @@
                   <c:v>0.666666666667</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.783333333333</c:v>
+                  <c:v>0.733333333333</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.783333333333</c:v>
+                  <c:v>0.733333333333</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.733333333333</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>0.733333333333</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>0.783333333333</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.733333333333</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0.733333333333</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.783333333333</c:v>
+                  <c:v>0.733333333333</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.783333333333</c:v>
+                  <c:v>0.733333333333</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>0.733333333333</c:v>
                 </c:pt>
                 <c:pt idx="45">
+                  <c:v>0.733333333333</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.733333333333</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>0.783333333333</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.783333333333</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.733333333333</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>0.783333333333</c:v>
@@ -884,13 +1024,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="789249312"/>
-        <c:axId val="796126064"/>
+        <c:axId val="-1752377920"/>
+        <c:axId val="-1710185936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="789249312"/>
+        <c:axId val="-1752377920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="2.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1005,12 +1146,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="796126064"/>
+        <c:crossAx val="-1710185936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="796126064"/>
+        <c:axId val="-1710185936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1125,7 +1266,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="789249312"/>
+        <c:crossAx val="-1752377920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1221,6 +1362,37 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Minimum samples</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> in nodes with mininimum samples in leafs</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1257,15 +1429,15 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="6"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>min samples nodes</c:v>
+            <c:v>38_samples_nodes</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1276,11 +1448,76 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>min_samples_nodes_leaf!$W:$W</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>min_samples_nodes_leaf!$X:$X</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>26_samples_nodes</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent5"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1288,312 +1525,208 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>min_sample_node!$A:$A</c:f>
+              <c:f>min_samples_nodes_leaf!$Q:$Q</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048576"/>
-                <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0</c:v>
+                  <c:v>37.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>22.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>23.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>26.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>27.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>28.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>29.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>31.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>33.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>34.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>35.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>36.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>37.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>38.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>39.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>41.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>42.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>43.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>44.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>45.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>46.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>47.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>48.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
                   <c:v>49.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>50.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>min_sample_node!$B:$B</c:f>
+              <c:f>min_samples_nodes_leaf!$R:$R</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048576"/>
-                <c:pt idx="0">
-                  <c:v>0.8</c:v>
-                </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85</c:v>
+                  <c:v>0.733333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.816666666667</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.766666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>14_samples_nodes</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>min_samples_nodes_leaf!$K:$K</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>min_samples_nodes_leaf!$L:$L</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="1">
+                  <c:v>0.733333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.766666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>2_samples_nodes</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>min_samples_nodes_leaf!$B:$B</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>min_samples_nodes_leaf!$C:$C</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="1">
+                  <c:v>0.783333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.75</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.766666666667</c:v>
+                </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.816666666667</c:v>
+                  <c:v>0.666666666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.766666666667</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.766666666667</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.833333333333</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.766666666667</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.683333333333</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.783333333333</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.783333333333</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.766666666667</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.766666666667</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.716666666667</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.716666666667</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.716666666667</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.716666666667</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.666666666667</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.666666666667</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.716666666667</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.666666666667</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.666666666667</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.783333333333</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.783333333333</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.733333333333</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.783333333333</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.733333333333</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.733333333333</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.783333333333</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.783333333333</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.733333333333</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.783333333333</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.783333333333</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.733333333333</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.783333333333</c:v>
+                  <c:v>0.666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1608,11 +1741,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="789259328"/>
-        <c:axId val="789262448"/>
+        <c:axId val="-1790389216"/>
+        <c:axId val="-1788301568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="789259328"/>
+        <c:axId val="-1790389216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1653,15 +1786,12 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>min_samples</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> nodes</a:t>
+                  <a:t>Minimum Samples in Leafs</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1672,6 +1802,126 @@
           </c:spPr>
           <c:txPr>
             <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1788301568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1788301568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -1727,125 +1977,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="789262448"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="789262448"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0.6"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>precision</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="789259328"/>
+        <c:crossAx val="-1790389216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1857,6 +1989,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1979,7 +2143,7 @@
           <c:idx val="6"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>16_samples_nodes</c:v>
+            <c:v>50_samples_nodes</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2003,26 +2167,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="5"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-          </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>min_samples_nodes_leaf!$W:$W</c:f>
+              <c:f>min_samples_nodes_leaf!$AA:$AA</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048576"/>
@@ -2030,70 +2177,40 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.0</c:v>
+                  <c:v>37.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>19.0</c:v>
+                  <c:v>49.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>min_samples_nodes_leaf!$X:$X</c:f>
+              <c:f>min_samples_nodes_leaf!$AB:$AB</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048576"/>
                 <c:pt idx="1">
-                  <c:v>0.733333333333</c:v>
+                  <c:v>0.783333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.733333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.733333333333</c:v>
+                  <c:v>0.816666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.683333333333</c:v>
+                  <c:v>0.666666666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.783333333333</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.733333333333</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.733333333333</c:v>
+                  <c:v>0.666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2104,7 +2221,7 @@
           <c:idx val="4"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>12_samples_nodes</c:v>
+            <c:v>26_samples_nodes</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2140,31 +2257,16 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.0</c:v>
+                  <c:v>37.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>19.0</c:v>
+                  <c:v>49.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2176,34 +2278,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048576"/>
                 <c:pt idx="1">
-                  <c:v>0.8</c:v>
+                  <c:v>0.733333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.766666666667</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.766666666667</c:v>
+                  <c:v>0.766666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.666666666667</c:v>
+                  <c:v>0.666666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.733333333333</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.733333333333</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.783333333333</c:v>
+                  <c:v>0.666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2214,7 +2301,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>8_samples_nodes</c:v>
+            <c:v>14_samples_nodes</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2250,31 +2337,16 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.0</c:v>
+                  <c:v>37.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>19.0</c:v>
+                  <c:v>49.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2286,34 +2358,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048576"/>
                 <c:pt idx="1">
-                  <c:v>0.766666666667</c:v>
+                  <c:v>0.733333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.716666666667</c:v>
+                  <c:v>0.766666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.633333333333</c:v>
+                  <c:v>0.666666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.733333333333</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.783333333333</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.783333333333</c:v>
+                  <c:v>0.666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2360,31 +2417,16 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.0</c:v>
+                  <c:v>37.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>19.0</c:v>
+                  <c:v>49.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2396,10 +2438,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048576"/>
                 <c:pt idx="1">
-                  <c:v>0.816666666667</c:v>
+                  <c:v>0.783333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.816666666667</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.766666666667</c:v>
@@ -2408,22 +2450,7 @@
                   <c:v>0.666666666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.733333333333</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.783333333333</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.783333333333</c:v>
+                  <c:v>0.666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2438,13 +2465,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="789293696"/>
-        <c:axId val="796063456"/>
+        <c:axId val="-1708089312"/>
+        <c:axId val="-1704477264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="789293696"/>
+        <c:axId val="-1708089312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="1.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2555,12 +2583,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="796063456"/>
+        <c:crossAx val="-1704477264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="796063456"/>
+        <c:axId val="-1704477264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -2674,7 +2702,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="789293696"/>
+        <c:crossAx val="-1708089312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2772,21 +2800,11 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
@@ -2797,33 +2815,6 @@
       </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2838,28 +2829,13 @@
             <c:v>size</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:ln w="25400">
+              <a:noFill/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -3099,19 +3075,19 @@
                   <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>17.0</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>17.0</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>19.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>19.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>19.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>21.0</c:v>
@@ -3282,10 +3258,10 @@
                   <c:v>0.666666666667</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.733333333333</c:v>
+                  <c:v>0.783333333333</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.733333333333</c:v>
+                  <c:v>0.783333333333</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.733333333333</c:v>
@@ -3297,13 +3273,13 @@
                   <c:v>0.783333333333</c:v>
                 </c:pt>
                 <c:pt idx="41">
+                  <c:v>0.783333333333</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>0.733333333333</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>0.783333333333</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.733333333333</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>0.783333333333</c:v>
@@ -3312,7 +3288,7 @@
                   <c:v>0.733333333333</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.733333333333</c:v>
+                  <c:v>0.783333333333</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>0.783333333333</c:v>
@@ -3321,13 +3297,13 @@
                   <c:v>0.733333333333</c:v>
                 </c:pt>
                 <c:pt idx="49">
+                  <c:v>0.733333333333</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>0.783333333333</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>0.733333333333</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.783333333333</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>0.733333333333</c:v>
@@ -3339,31 +3315,31 @@
                   <c:v>0.733333333333</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.783333333333</c:v>
+                  <c:v>0.716666666667</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.733333333333</c:v>
+                  <c:v>0.716666666667</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.733333333333</c:v>
+                  <c:v>0.666666666667</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.733333333333</c:v>
+                  <c:v>0.666666666667</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.783333333333</c:v>
+                  <c:v>0.666666666667</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.783333333333</c:v>
+                  <c:v>0.666666666667</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.733333333333</c:v>
+                  <c:v>0.716666666667</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.783333333333</c:v>
+                  <c:v>0.666666666667</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.733333333333</c:v>
+                  <c:v>0.666666666667</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>0.716666666667</c:v>
@@ -3372,7 +3348,7 @@
                   <c:v>0.716666666667</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.716666666667</c:v>
+                  <c:v>0.666666666667</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>0.666666666667</c:v>
@@ -3381,64 +3357,64 @@
                   <c:v>0.666666666667</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.716666666667</c:v>
+                  <c:v>0.666666666667</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.716666666667</c:v>
+                  <c:v>0.666666666667</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.716666666667</c:v>
+                  <c:v>0.666666666667</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.65</c:v>
+                  <c:v>0.783333333333</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.65</c:v>
+                  <c:v>0.783333333333</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.7</c:v>
+                  <c:v>0.733333333333</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.65</c:v>
+                  <c:v>0.783333333333</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.65</c:v>
+                  <c:v>0.733333333333</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.65</c:v>
+                  <c:v>0.783333333333</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.65</c:v>
+                  <c:v>0.733333333333</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.7</c:v>
+                  <c:v>0.733333333333</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.65</c:v>
+                  <c:v>0.733333333333</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.7</c:v>
+                  <c:v>0.733333333333</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.766666666667</c:v>
+                  <c:v>0.733333333333</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.766666666667</c:v>
+                  <c:v>0.733333333333</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.766666666667</c:v>
+                  <c:v>0.783333333333</c:v>
                 </c:pt>
                 <c:pt idx="85">
+                  <c:v>0.783333333333</c:v>
+                </c:pt>
+                <c:pt idx="86">
                   <c:v>0.733333333333</c:v>
                 </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.783333333333</c:v>
-                </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.65</c:v>
+                  <c:v>0.683333333333</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.733333333333</c:v>
+                  <c:v>0.683333333333</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>0.716666666667</c:v>
@@ -3447,28 +3423,28 @@
                   <c:v>0.833333333333</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>0.833333333333</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>0.85</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="93">
+                  <c:v>0.833333333333</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>0.816666666667</c:v>
                 </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.766666666667</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.733333333333</c:v>
-                </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="96">
+                  <c:v>0.816666666667</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>0.85</c:v>
                 </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.783333333333</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.8</c:v>
-                </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.85</c:v>
+                  <c:v>0.866666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3483,48 +3459,25 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="789328992"/>
-        <c:axId val="789332752"/>
+        <c:axId val="-1790751232"/>
+        <c:axId val="-1790346480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="789328992"/>
+        <c:axId val="-1790751232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
+        <c:majorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
@@ -3544,76 +3497,16 @@
           </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="789332752"/>
+        <c:crossAx val="-1790346480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="789332752"/>
+        <c:axId val="-1790346480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -3621,38 +3514,15 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
+        <c:majorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
@@ -3663,101 +3533,19 @@
           </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="789328992"/>
+        <c:crossAx val="-1790751232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -3896,46 +3684,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4969,522 +4717,6 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6039,51 +5271,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>132080</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6102,10 +5299,40 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142240</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>132080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>772160</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6141,27 +5368,27 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="min_leaf_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="min_nodes_1" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="min_nodes" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="min_leaf" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="min_nodes" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="min_nodes_leaf_2" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="min_nodes_leaf_1" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="min_nodes_leaf_1" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="dt_size_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="dt_size_3" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="dt_size_2" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="dt_size_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6427,10 +5654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="C1" sqref="C1:D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6439,6 +5666,8 @@
     <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -6446,13 +5675,13 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>0.8</v>
+        <v>0.81666666666700005</v>
       </c>
       <c r="C1">
         <v>2</v>
       </c>
       <c r="D1">
-        <v>0.8</v>
+        <v>0.83333333333299997</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6460,13 +5689,13 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.83333333333299997</v>
+        <v>0.81666666666700005</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2">
-        <v>0.85</v>
+        <v>0.86666666666699999</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6480,7 +5709,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>0.81666666666700005</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -6488,13 +5717,13 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.78333333333300004</v>
+        <v>0.83333333333299997</v>
       </c>
       <c r="C4">
         <v>5</v>
       </c>
       <c r="D4">
-        <v>0.75</v>
+        <v>0.76666666666700001</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -6508,7 +5737,7 @@
         <v>6</v>
       </c>
       <c r="D5">
-        <v>0.81666666666700005</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -6516,13 +5745,13 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.73333333333299999</v>
+        <v>0.7</v>
       </c>
       <c r="C6">
         <v>7</v>
       </c>
       <c r="D6">
-        <v>0.76666666666700001</v>
+        <v>0.73333333333299999</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -6530,7 +5759,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.68333333333299995</v>
+        <v>0.66666666666700003</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -6550,7 +5779,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>0.76666666666700001</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -6558,13 +5787,13 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="C9">
         <v>10</v>
       </c>
       <c r="D9">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -6572,13 +5801,13 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="C10">
         <v>11</v>
       </c>
       <c r="D10">
-        <v>0.83333333333299997</v>
+        <v>0.78333333333300004</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -6586,13 +5815,13 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="C11">
         <v>12</v>
       </c>
       <c r="D11">
-        <v>0.76666666666700001</v>
+        <v>0.71666666666699996</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -6600,7 +5829,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="C12">
         <v>13</v>
@@ -6620,7 +5849,7 @@
         <v>14</v>
       </c>
       <c r="D13">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -6634,7 +5863,7 @@
         <v>15</v>
       </c>
       <c r="D14">
-        <v>0.78333333333300004</v>
+        <v>0.73333333333299999</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -6642,13 +5871,13 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.73333333333299999</v>
+        <v>0.78333333333300004</v>
       </c>
       <c r="C15">
         <v>16</v>
       </c>
       <c r="D15">
-        <v>0.78333333333300004</v>
+        <v>0.73333333333299999</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -6670,7 +5899,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0.78333333333300004</v>
+        <v>0.73333333333299999</v>
       </c>
       <c r="C17">
         <v>18</v>
@@ -6684,13 +5913,13 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0.78333333333300004</v>
+        <v>0.73333333333299999</v>
       </c>
       <c r="C18">
         <v>19</v>
       </c>
       <c r="D18">
-        <v>0.71666666666699996</v>
+        <v>0.76666666666700001</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -6698,13 +5927,13 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.73333333333299999</v>
+        <v>0.78333333333300004</v>
       </c>
       <c r="C19">
         <v>20</v>
       </c>
       <c r="D19">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -6712,7 +5941,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>0.78333333333300004</v>
+        <v>0.73333333333299999</v>
       </c>
       <c r="C20">
         <v>21</v>
@@ -6726,7 +5955,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>0.73333333333299999</v>
+        <v>0.78333333333300004</v>
       </c>
       <c r="C21">
         <v>22</v>
@@ -6754,7 +5983,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>0.76666666666700001</v>
+        <v>0.81666666666700005</v>
       </c>
       <c r="C23">
         <v>24</v>
@@ -6782,13 +6011,13 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>0.81666666666700005</v>
+        <v>0.76666666666700001</v>
       </c>
       <c r="C25">
         <v>26</v>
       </c>
       <c r="D25">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -6796,7 +6025,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>0.81666666666700005</v>
+        <v>0.76666666666700001</v>
       </c>
       <c r="C26">
         <v>27</v>
@@ -6824,7 +6053,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>0.83333333333299997</v>
+        <v>0.71666666666699996</v>
       </c>
       <c r="C28">
         <v>29</v>
@@ -6838,7 +6067,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>0.81666666666700005</v>
+        <v>0.76666666666700001</v>
       </c>
       <c r="C29">
         <v>30</v>
@@ -6858,7 +6087,7 @@
         <v>31</v>
       </c>
       <c r="D30">
-        <v>0.71666666666699996</v>
+        <v>0.66666666666700003</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -6956,7 +6185,7 @@
         <v>38</v>
       </c>
       <c r="D37">
-        <v>0.78333333333300004</v>
+        <v>0.73333333333299999</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -6970,7 +6199,7 @@
         <v>39</v>
       </c>
       <c r="D38">
-        <v>0.78333333333300004</v>
+        <v>0.73333333333299999</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -6998,18 +6227,30 @@
         <v>41</v>
       </c>
       <c r="D40">
-        <v>0.78333333333300004</v>
+        <v>0.73333333333299999</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>0.66666666666700003</v>
+      </c>
       <c r="C41">
         <v>42</v>
       </c>
       <c r="D41">
-        <v>0.73333333333299999</v>
+        <v>0.78333333333300004</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>0.66666666666700003</v>
+      </c>
       <c r="C42">
         <v>43</v>
       </c>
@@ -7018,22 +6259,40 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>0.66666666666700003</v>
+      </c>
       <c r="C43">
         <v>44</v>
       </c>
       <c r="D43">
-        <v>0.78333333333300004</v>
+        <v>0.73333333333299999</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>0.66666666666700003</v>
+      </c>
       <c r="C44">
         <v>45</v>
       </c>
       <c r="D44">
-        <v>0.78333333333300004</v>
+        <v>0.73333333333299999</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>0.66666666666700003</v>
+      </c>
       <c r="C45">
         <v>46</v>
       </c>
@@ -7042,35 +6301,67 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>0.66666666666700003</v>
+      </c>
       <c r="C46">
         <v>47</v>
       </c>
       <c r="D46">
-        <v>0.78333333333300004</v>
+        <v>0.73333333333299999</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>0.66666666666700003</v>
+      </c>
       <c r="C47">
         <v>48</v>
       </c>
       <c r="D47">
-        <v>0.78333333333300004</v>
+        <v>0.73333333333299999</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>0.66666666666700003</v>
+      </c>
       <c r="C48">
         <v>49</v>
       </c>
       <c r="D48">
-        <v>0.73333333333299999</v>
-      </c>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
+        <v>0.78333333333300004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <v>0.66666666666700003</v>
+      </c>
       <c r="C49">
         <v>50</v>
       </c>
       <c r="D49">
         <v>0.78333333333300004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>0.66666666666700003</v>
       </c>
     </row>
   </sheetData>
@@ -7081,422 +6372,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A2:AB6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B49"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>2</v>
-      </c>
-      <c r="B1">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>0.81666666666700005</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>0.81666666666700005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>0.76666666666700001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>0.76666666666700001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>0.83333333333299997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>0.76666666666700001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>0.68333333333299995</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>15</v>
-      </c>
-      <c r="B14">
-        <v>0.78333333333300004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>16</v>
-      </c>
-      <c r="B15">
-        <v>0.78333333333300004</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>17</v>
-      </c>
-      <c r="B16">
-        <v>0.76666666666700001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>18</v>
-      </c>
-      <c r="B17">
-        <v>0.76666666666700001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>19</v>
-      </c>
-      <c r="B18">
-        <v>0.71666666666699996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>20</v>
-      </c>
-      <c r="B19">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>21</v>
-      </c>
-      <c r="B20">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>22</v>
-      </c>
-      <c r="B21">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>23</v>
-      </c>
-      <c r="B22">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>24</v>
-      </c>
-      <c r="B23">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>25</v>
-      </c>
-      <c r="B24">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>26</v>
-      </c>
-      <c r="B25">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>27</v>
-      </c>
-      <c r="B26">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>28</v>
-      </c>
-      <c r="B27">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>29</v>
-      </c>
-      <c r="B28">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>30</v>
-      </c>
-      <c r="B29">
-        <v>0.71666666666699996</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>31</v>
-      </c>
-      <c r="B30">
-        <v>0.71666666666699996</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>32</v>
-      </c>
-      <c r="B31">
-        <v>0.71666666666699996</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>33</v>
-      </c>
-      <c r="B32">
-        <v>0.66666666666700003</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>34</v>
-      </c>
-      <c r="B33">
-        <v>0.66666666666700003</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>35</v>
-      </c>
-      <c r="B34">
-        <v>0.71666666666699996</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>36</v>
-      </c>
-      <c r="B35">
-        <v>0.66666666666700003</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>37</v>
-      </c>
-      <c r="B36">
-        <v>0.66666666666700003</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>38</v>
-      </c>
-      <c r="B37">
-        <v>0.78333333333300004</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>39</v>
-      </c>
-      <c r="B38">
-        <v>0.78333333333300004</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>40</v>
-      </c>
-      <c r="B39">
-        <v>0.73333333333299999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>41</v>
-      </c>
-      <c r="B40">
-        <v>0.78333333333300004</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>42</v>
-      </c>
-      <c r="B41">
-        <v>0.73333333333299999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>43</v>
-      </c>
-      <c r="B42">
-        <v>0.73333333333299999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>44</v>
-      </c>
-      <c r="B43">
-        <v>0.78333333333300004</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>45</v>
-      </c>
-      <c r="B44">
-        <v>0.78333333333300004</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>46</v>
-      </c>
-      <c r="B45">
-        <v>0.73333333333299999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>47</v>
-      </c>
-      <c r="B46">
-        <v>0.78333333333300004</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>48</v>
-      </c>
-      <c r="B47">
-        <v>0.78333333333300004</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>49</v>
-      </c>
-      <c r="B48">
-        <v>0.73333333333299999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>50</v>
-      </c>
-      <c r="B49">
-        <v>0.78333333333300004</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:X11"/>
-  <sheetViews>
-    <sheetView topLeftCell="E7" zoomScale="125" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView topLeftCell="A3" zoomScale="125" workbookViewId="0">
+      <selection activeCell="AE2" sqref="AE2:AG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7521,13 +6400,119 @@
     <col min="21" max="21" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="3.1640625" customWidth="1"/>
     <col min="24" max="24" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="3.1640625" customWidth="1"/>
+    <col min="25" max="25" width="16.1640625" customWidth="1"/>
+    <col min="26" max="26" width="3.1640625" customWidth="1"/>
     <col min="27" max="27" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="3.1640625" customWidth="1"/>
-    <col min="30" max="30" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.33203125" customWidth="1"/>
+    <col min="29" max="29" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="2.1640625" customWidth="1"/>
+    <col min="31" max="31" width="3.1640625" customWidth="1"/>
+    <col min="32" max="32" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="3.1640625" customWidth="1"/>
+    <col min="35" max="35" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="3.1640625" customWidth="1"/>
+    <col min="38" max="38" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="3.1640625" customWidth="1"/>
+    <col min="41" max="41" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="3.1640625" customWidth="1"/>
+    <col min="44" max="44" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="53" max="54" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="59" max="60" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="62" max="63" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="65" max="66" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="68" max="69" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="71" max="72" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="74" max="75" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="77" max="78" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="80" max="81" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="83" max="84" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="86" max="87" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="89" max="90" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="92" max="93" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="95" max="96" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="98" max="99" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="101" max="102" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="104" max="105" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="107" max="108" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="110" max="111" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="113" max="114" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="116" max="117" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="119" max="120" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="122" max="123" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="125" max="126" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="128" max="129" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="131" max="132" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="134" max="135" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="137" max="138" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="140" max="141" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="143" max="144" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="146" max="147" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="149" max="150" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="152" max="153" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="155" max="156" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="158" max="159" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="161" max="162" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="164" max="165" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="167" max="168" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="170" max="171" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="173" max="174" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -7535,346 +6520,186 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.81666666666700005</v>
-      </c>
-      <c r="J2">
-        <v>8</v>
-      </c>
-      <c r="K2">
+        <v>0.78333333333300004</v>
+      </c>
+      <c r="J2" s="1">
+        <v>14</v>
+      </c>
+      <c r="K2" s="1">
         <v>1</v>
       </c>
-      <c r="L2">
-        <v>0.76666666666700001</v>
-      </c>
-      <c r="P2">
-        <v>12</v>
-      </c>
-      <c r="Q2">
+      <c r="L2" s="1">
+        <v>0.73333333300000003</v>
+      </c>
+      <c r="P2" s="1">
+        <v>26</v>
+      </c>
+      <c r="Q2" s="1">
         <v>1</v>
       </c>
-      <c r="R2">
-        <v>0.8</v>
-      </c>
-      <c r="W2">
+      <c r="R2" s="1">
+        <v>0.73333333300000003</v>
+      </c>
+      <c r="Z2">
+        <v>50</v>
+      </c>
+      <c r="AA2">
         <v>1</v>
       </c>
-      <c r="X2">
-        <v>0.73333333333299999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="AB2">
+        <v>0.78333333333300004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C3">
-        <v>0.81666666666700005</v>
-      </c>
-      <c r="J3">
-        <v>8</v>
-      </c>
-      <c r="K3">
-        <v>3</v>
-      </c>
-      <c r="L3">
-        <v>0.8</v>
-      </c>
-      <c r="P3">
-        <v>12</v>
-      </c>
-      <c r="Q3">
-        <v>3</v>
-      </c>
-      <c r="R3">
-        <v>0.76666666666700001</v>
-      </c>
-      <c r="W3">
-        <v>3</v>
-      </c>
-      <c r="X3">
+        <v>0.75</v>
+      </c>
+      <c r="J3" s="1">
+        <v>14</v>
+      </c>
+      <c r="K3" s="1">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="P3" s="1">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>13</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="Z3">
+        <v>50</v>
+      </c>
+      <c r="AA3">
+        <v>13</v>
+      </c>
+      <c r="AB3">
         <v>0.73333333333299999</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C4">
         <v>0.76666666666700001</v>
       </c>
-      <c r="J4">
-        <v>8</v>
-      </c>
-      <c r="K4">
-        <v>5</v>
-      </c>
-      <c r="L4">
-        <v>0.71666666666699996</v>
-      </c>
-      <c r="P4">
-        <v>12</v>
-      </c>
-      <c r="Q4">
-        <v>5</v>
-      </c>
-      <c r="R4">
-        <v>0.76666666666700001</v>
-      </c>
-      <c r="W4">
-        <v>5</v>
-      </c>
-      <c r="X4">
-        <v>0.73333333333299999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="J4" s="1">
+        <v>14</v>
+      </c>
+      <c r="K4" s="1">
+        <v>25</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.76666666699999997</v>
+      </c>
+      <c r="P4" s="1">
+        <v>26</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>25</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0.76666666699999997</v>
+      </c>
+      <c r="Z4">
+        <v>50</v>
+      </c>
+      <c r="AA4">
+        <v>25</v>
+      </c>
+      <c r="AB4">
+        <v>0.81666666666700005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C5">
         <v>0.66666666666700003</v>
       </c>
-      <c r="J5">
-        <v>8</v>
-      </c>
-      <c r="K5">
-        <v>7</v>
-      </c>
-      <c r="L5">
-        <v>0.63333333333300001</v>
-      </c>
-      <c r="P5">
-        <v>12</v>
-      </c>
-      <c r="Q5">
-        <v>7</v>
-      </c>
-      <c r="R5">
-        <v>0.66666666666700003</v>
-      </c>
-      <c r="W5">
-        <v>7</v>
-      </c>
-      <c r="X5">
-        <v>0.68333333333299995</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="J5" s="1">
+        <v>14</v>
+      </c>
+      <c r="K5" s="1">
+        <v>37</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.66666666699999999</v>
+      </c>
+      <c r="P5" s="1">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>37</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0.66666666699999999</v>
+      </c>
+      <c r="Z5">
+        <v>50</v>
+      </c>
+      <c r="AA5">
+        <v>37</v>
+      </c>
+      <c r="AB5">
+        <v>0.66666666666700003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="C6">
-        <v>0.65</v>
-      </c>
-      <c r="J6">
-        <v>8</v>
-      </c>
-      <c r="K6">
-        <v>9</v>
-      </c>
-      <c r="L6">
-        <v>0.7</v>
-      </c>
-      <c r="P6">
-        <v>12</v>
-      </c>
-      <c r="Q6">
-        <v>9</v>
-      </c>
-      <c r="R6">
-        <v>0.65</v>
-      </c>
-      <c r="W6">
-        <v>9</v>
-      </c>
-      <c r="X6">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>0.65</v>
-      </c>
-      <c r="J7">
-        <v>8</v>
-      </c>
-      <c r="K7">
-        <v>11</v>
-      </c>
-      <c r="L7">
-        <v>0.7</v>
-      </c>
-      <c r="P7">
-        <v>12</v>
-      </c>
-      <c r="Q7">
-        <v>11</v>
-      </c>
-      <c r="R7">
-        <v>0.65</v>
-      </c>
-      <c r="W7">
-        <v>11</v>
-      </c>
-      <c r="X7">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>0.75</v>
-      </c>
-      <c r="J8">
-        <v>8</v>
-      </c>
-      <c r="K8">
-        <v>13</v>
-      </c>
-      <c r="L8">
-        <v>0.7</v>
-      </c>
-      <c r="P8">
-        <v>12</v>
-      </c>
-      <c r="Q8">
-        <v>13</v>
-      </c>
-      <c r="R8">
-        <v>0.7</v>
-      </c>
-      <c r="W8">
-        <v>13</v>
-      </c>
-      <c r="X8">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>15</v>
-      </c>
-      <c r="C9">
-        <v>0.73333333333299999</v>
-      </c>
-      <c r="J9">
-        <v>8</v>
-      </c>
-      <c r="K9">
-        <v>15</v>
-      </c>
-      <c r="L9">
-        <v>0.73333333333299999</v>
-      </c>
-      <c r="P9">
-        <v>12</v>
-      </c>
-      <c r="Q9">
-        <v>15</v>
-      </c>
-      <c r="R9">
-        <v>0.73333333333299999</v>
-      </c>
-      <c r="W9">
-        <v>15</v>
-      </c>
-      <c r="X9">
-        <v>0.78333333333300004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10">
-        <v>17</v>
-      </c>
-      <c r="C10">
-        <v>0.78333333333300004</v>
-      </c>
-      <c r="J10">
-        <v>8</v>
-      </c>
-      <c r="K10">
-        <v>17</v>
-      </c>
-      <c r="L10">
-        <v>0.78333333333300004</v>
-      </c>
-      <c r="P10">
-        <v>12</v>
-      </c>
-      <c r="Q10">
-        <v>17</v>
-      </c>
-      <c r="R10">
-        <v>0.73333333333299999</v>
-      </c>
-      <c r="W10">
-        <v>17</v>
-      </c>
-      <c r="X10">
-        <v>0.73333333333299999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <v>19</v>
-      </c>
-      <c r="C11">
-        <v>0.78333333333300004</v>
-      </c>
-      <c r="J11">
-        <v>8</v>
-      </c>
-      <c r="K11">
-        <v>19</v>
-      </c>
-      <c r="L11">
-        <v>0.78333333333300004</v>
-      </c>
-      <c r="P11">
-        <v>12</v>
-      </c>
-      <c r="Q11">
-        <v>19</v>
-      </c>
-      <c r="R11">
-        <v>0.78333333333300004</v>
-      </c>
-      <c r="W11">
-        <v>19</v>
-      </c>
-      <c r="X11">
-        <v>0.73333333333299999</v>
+        <v>0.66666666666700003</v>
+      </c>
+      <c r="J6" s="1">
+        <v>14</v>
+      </c>
+      <c r="K6" s="1">
+        <v>49</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.66666666699999999</v>
+      </c>
+      <c r="P6" s="1">
+        <v>26</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>49</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0.66666666699999999</v>
+      </c>
+      <c r="Z6">
+        <v>50</v>
+      </c>
+      <c r="AA6">
+        <v>49</v>
+      </c>
+      <c r="AB6">
+        <v>0.66666666666700003</v>
       </c>
     </row>
   </sheetData>
@@ -7883,12 +6708,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D1" sqref="D1:E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7896,7 +6721,8 @@
     <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.1640625" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -8192,7 +7018,7 @@
         <v>7</v>
       </c>
       <c r="B37">
-        <v>0.73333333333299999</v>
+        <v>0.78333333333300004</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -8200,7 +7026,7 @@
         <v>7</v>
       </c>
       <c r="B38">
-        <v>0.73333333333299999</v>
+        <v>0.78333333333300004</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -8232,7 +7058,7 @@
         <v>7</v>
       </c>
       <c r="B42">
-        <v>0.73333333333299999</v>
+        <v>0.78333333333300004</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -8240,7 +7066,7 @@
         <v>7</v>
       </c>
       <c r="B43">
-        <v>0.78333333333300004</v>
+        <v>0.73333333333299999</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -8248,7 +7074,7 @@
         <v>7</v>
       </c>
       <c r="B44">
-        <v>0.73333333333299999</v>
+        <v>0.78333333333300004</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -8272,7 +7098,7 @@
         <v>7</v>
       </c>
       <c r="B47">
-        <v>0.73333333333299999</v>
+        <v>0.78333333333300004</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -8296,7 +7122,7 @@
         <v>7</v>
       </c>
       <c r="B50">
-        <v>0.78333333333300004</v>
+        <v>0.73333333333299999</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -8304,7 +7130,7 @@
         <v>7</v>
       </c>
       <c r="B51">
-        <v>0.73333333333299999</v>
+        <v>0.78333333333300004</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -8312,7 +7138,7 @@
         <v>7</v>
       </c>
       <c r="B52">
-        <v>0.78333333333300004</v>
+        <v>0.73333333333299999</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -8344,7 +7170,7 @@
         <v>9</v>
       </c>
       <c r="B56">
-        <v>0.78333333333300004</v>
+        <v>0.71666666666699996</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -8352,7 +7178,7 @@
         <v>9</v>
       </c>
       <c r="B57">
-        <v>0.73333333333299999</v>
+        <v>0.71666666666699996</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -8360,7 +7186,7 @@
         <v>9</v>
       </c>
       <c r="B58">
-        <v>0.73333333333299999</v>
+        <v>0.66666666666700003</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -8368,7 +7194,7 @@
         <v>11</v>
       </c>
       <c r="B59">
-        <v>0.73333333333299999</v>
+        <v>0.66666666666700003</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -8376,7 +7202,7 @@
         <v>11</v>
       </c>
       <c r="B60">
-        <v>0.78333333333300004</v>
+        <v>0.66666666666700003</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -8384,7 +7210,7 @@
         <v>11</v>
       </c>
       <c r="B61">
-        <v>0.78333333333300004</v>
+        <v>0.66666666666700003</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -8392,7 +7218,7 @@
         <v>11</v>
       </c>
       <c r="B62">
-        <v>0.73333333333299999</v>
+        <v>0.71666666666699996</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -8400,7 +7226,7 @@
         <v>11</v>
       </c>
       <c r="B63">
-        <v>0.78333333333300004</v>
+        <v>0.66666666666700003</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -8408,7 +7234,7 @@
         <v>11</v>
       </c>
       <c r="B64">
-        <v>0.73333333333299999</v>
+        <v>0.66666666666700003</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -8432,7 +7258,7 @@
         <v>11</v>
       </c>
       <c r="B67">
-        <v>0.71666666666699996</v>
+        <v>0.66666666666700003</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -8456,7 +7282,7 @@
         <v>13</v>
       </c>
       <c r="B70">
-        <v>0.71666666666699996</v>
+        <v>0.66666666666700003</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -8464,7 +7290,7 @@
         <v>13</v>
       </c>
       <c r="B71">
-        <v>0.71666666666699996</v>
+        <v>0.66666666666700003</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -8472,7 +7298,7 @@
         <v>13</v>
       </c>
       <c r="B72">
-        <v>0.71666666666699996</v>
+        <v>0.66666666666700003</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -8480,7 +7306,7 @@
         <v>17</v>
       </c>
       <c r="B73">
-        <v>0.65</v>
+        <v>0.78333333333300004</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -8488,7 +7314,7 @@
         <v>17</v>
       </c>
       <c r="B74">
-        <v>0.65</v>
+        <v>0.78333333333300004</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -8496,7 +7322,7 @@
         <v>17</v>
       </c>
       <c r="B75">
-        <v>0.7</v>
+        <v>0.73333333333299999</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -8504,7 +7330,7 @@
         <v>17</v>
       </c>
       <c r="B76">
-        <v>0.65</v>
+        <v>0.78333333333300004</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -8512,47 +7338,47 @@
         <v>17</v>
       </c>
       <c r="B77">
-        <v>0.65</v>
+        <v>0.73333333333299999</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B78">
-        <v>0.65</v>
+        <v>0.78333333333300004</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B79">
-        <v>0.65</v>
+        <v>0.73333333333299999</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B80">
-        <v>0.7</v>
+        <v>0.73333333333299999</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B81">
-        <v>0.65</v>
+        <v>0.73333333333299999</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B82">
-        <v>0.7</v>
+        <v>0.73333333333299999</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -8560,7 +7386,7 @@
         <v>21</v>
       </c>
       <c r="B83">
-        <v>0.76666666666700001</v>
+        <v>0.73333333333299999</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -8568,7 +7394,7 @@
         <v>21</v>
       </c>
       <c r="B84">
-        <v>0.76666666666700001</v>
+        <v>0.73333333333299999</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -8576,7 +7402,7 @@
         <v>21</v>
       </c>
       <c r="B85">
-        <v>0.76666666666700001</v>
+        <v>0.78333333333300004</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -8584,7 +7410,7 @@
         <v>21</v>
       </c>
       <c r="B86">
-        <v>0.73333333333299999</v>
+        <v>0.78333333333300004</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -8592,7 +7418,7 @@
         <v>21</v>
       </c>
       <c r="B87">
-        <v>0.78333333333300004</v>
+        <v>0.73333333333299999</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -8600,7 +7426,7 @@
         <v>23</v>
       </c>
       <c r="B88">
-        <v>0.65</v>
+        <v>0.68333333333299995</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -8608,7 +7434,7 @@
         <v>23</v>
       </c>
       <c r="B89">
-        <v>0.73333333333299999</v>
+        <v>0.68333333333299995</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -8632,7 +7458,7 @@
         <v>29</v>
       </c>
       <c r="B92">
-        <v>0.85</v>
+        <v>0.83333333333299997</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
@@ -8640,7 +7466,7 @@
         <v>29</v>
       </c>
       <c r="B93">
-        <v>0.81666666666700005</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -8648,7 +7474,7 @@
         <v>29</v>
       </c>
       <c r="B94">
-        <v>0.76666666666700001</v>
+        <v>0.83333333333299997</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -8656,7 +7482,7 @@
         <v>31</v>
       </c>
       <c r="B95">
-        <v>0.73333333333299999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -8664,7 +7490,7 @@
         <v>33</v>
       </c>
       <c r="B96">
-        <v>0.85</v>
+        <v>0.81666666666700005</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -8672,7 +7498,7 @@
         <v>33</v>
       </c>
       <c r="B97">
-        <v>0.78333333333300004</v>
+        <v>0.81666666666700005</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -8680,7 +7506,7 @@
         <v>33</v>
       </c>
       <c r="B98">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -8688,7 +7514,7 @@
         <v>35</v>
       </c>
       <c r="B99">
-        <v>0.85</v>
+        <v>0.86666666666699999</v>
       </c>
     </row>
   </sheetData>

--- a/crabs/decision-trees-data/crabs-graphics_DTs.xlsx
+++ b/crabs/decision-trees-data/crabs-graphics_DTs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16300" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="min_num_leaf" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,13 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'accuracy-size'!$A$1:$B$4999</definedName>
-    <definedName name="dt_size" localSheetId="2">'accuracy-size'!#REF!</definedName>
+    <definedName name="dt_size" localSheetId="2">'accuracy-size'!$A$1:$B$99</definedName>
     <definedName name="dt_size_1" localSheetId="2">'accuracy-size'!$A$1:$B$4999</definedName>
     <definedName name="dt_size_2" localSheetId="2">'accuracy-size'!#REF!</definedName>
-    <definedName name="dt_size_3" localSheetId="2">'accuracy-size'!$A$1:$B$99</definedName>
-    <definedName name="min_leaf" localSheetId="0">min_num_leaf!$A$1:$B$50</definedName>
     <definedName name="min_leaf_1" localSheetId="0">min_num_leaf!#REF!</definedName>
-    <definedName name="min_nodes" localSheetId="0">min_num_leaf!#REF!</definedName>
-    <definedName name="min_nodes_1" localSheetId="0">min_num_leaf!$C$1:$D$49</definedName>
+    <definedName name="min_leaf_2" localSheetId="0">min_num_leaf!$A$1:$B$50</definedName>
+    <definedName name="min_nodes" localSheetId="0">min_num_leaf!$C$1:$D$49</definedName>
+    <definedName name="min_nodes_leaf" localSheetId="1">min_samples_nodes_leaf!$A$1:$O$5</definedName>
     <definedName name="min_nodes_leaf_1" localSheetId="1">min_samples_nodes_leaf!$A$2:$AD$11</definedName>
     <definedName name="min_nodes_leaf_2" localSheetId="1">min_samples_nodes_leaf!$AD$15:$AR$19</definedName>
   </definedNames>
@@ -60,7 +59,7 @@
     </textPr>
   </connection>
   <connection id="3" name="dt_size2" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/pmorvalho/Dropbox/1ºSemestre/SAD/Project/SAD_P2/crabs/decision-trees-data/dt_size.csv" decimal="," thousands=" ">
+    <textPr fileType="mac" sourceFile="/Users/pmorvalho/Dropbox/1ºSemestre/SAD/Project/SAD_P2/crabs/decision-trees-data/dt_size.csv" decimal="," thousands=" ">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -91,7 +90,15 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="7" name="min_nodes_leaf" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="7" name="min_nodes" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="/Users/pmorvalho/Dropbox/1ºSemestre/SAD/Project/SAD_P2/crabs/decision-trees-data/min_nodes.csv" decimal="," thousands=" ">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="8" name="min_nodes_leaf" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/pmorvalho/Dropbox/1ºSemestre/SAD/Project/SAD_P2/crabs/min_nodes_leaf.csv" decimal="," thousands=" ">
       <textFields count="30">
         <textField/>
@@ -127,7 +134,28 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="8" name="min_nodes_leaf1" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="9" name="min_nodes_leaf1" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="/Users/pmorvalho/Dropbox/1ºSemestre/SAD/Project/SAD_P2/crabs/decision-trees-data/min_nodes_leaf.csv" decimal="," thousands=" ">
+      <textFields count="15">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="10" name="min_nodes_leaf2" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" codePage="10000" sourceFile="/Users/pmorvalho/Dropbox/1ºSemestre/SAD/Project/SAD_P2/crabs/decision-trees-data/min_nodes_leaf.csv" decimal="," thousands=" ">
       <textFields count="15">
         <textField/>
@@ -148,16 +176,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="9" name="min_nodes1" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="11" name="min_nodes1" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/pmorvalho/Dropbox/1ºSemestre/SAD/Project/SAD_P2/crabs/min_nodes.csv" decimal="," thousands=" ">
-      <textFields count="2">
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-  <connection id="10" name="min_nodes2" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/pmorvalho/Dropbox/1ºSemestre/SAD/Project/SAD_P2/crabs/decision-trees-data/min_nodes.csv" decimal="," thousands=" ">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -518,154 +538,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048576"/>
                 <c:pt idx="0">
-                  <c:v>0.816666666667</c:v>
+                  <c:v>0.833333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.816666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.866666666667</c:v>
+                  <c:v>0.833333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.833333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.833333333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.816666666667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.816666666667</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.766666666667</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.666666666667</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="24">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.783333333333</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.783333333333</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.733333333333</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.733333333333</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.783333333333</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.733333333333</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.783333333333</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.733333333333</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.816666666667</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.766666666667</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.766666666667</c:v>
-                </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.766666666667</c:v>
+                  <c:v>0.616666666667</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.766666666667</c:v>
+                  <c:v>0.616666666667</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.716666666667</c:v>
+                  <c:v>0.616666666667</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.766666666667</c:v>
+                  <c:v>0.616666666667</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.816666666667</c:v>
+                  <c:v>0.616666666667</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.8</c:v>
+                  <c:v>0.616666666667</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.666666666667</c:v>
+                  <c:v>0.616666666667</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.666666666667</c:v>
+                  <c:v>0.616666666667</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.666666666667</c:v>
+                  <c:v>0.616666666667</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.666666666667</c:v>
+                  <c:v>0.616666666667</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.666666666667</c:v>
+                  <c:v>0.616666666667</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.666666666667</c:v>
+                  <c:v>0.616666666667</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.666666666667</c:v>
+                  <c:v>0.616666666667</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.666666666667</c:v>
+                  <c:v>0.616666666667</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.666666666667</c:v>
+                  <c:v>0.616666666667</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.666666666667</c:v>
+                  <c:v>0.616666666667</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.666666666667</c:v>
+                  <c:v>0.616666666667</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.666666666667</c:v>
+                  <c:v>0.616666666667</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.666666666667</c:v>
+                  <c:v>0.616666666667</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.666666666667</c:v>
+                  <c:v>0.616666666667</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.666666666667</c:v>
+                  <c:v>0.616666666667</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.666666666667</c:v>
+                  <c:v>0.616666666667</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.666666666667</c:v>
+                  <c:v>0.616666666667</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.666666666667</c:v>
+                  <c:v>0.616666666667</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.666666666667</c:v>
+                  <c:v>0.583333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -865,151 +885,151 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048576"/>
                 <c:pt idx="0">
-                  <c:v>0.833333333333</c:v>
+                  <c:v>0.883333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.866666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.816666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.833333333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.833333333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.833333333333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.833333333333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.833333333333</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.833333333333</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.833333333333</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.833333333333</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.833333333333</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="14">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.833333333333</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.833333333333</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.833333333333</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.833333333333</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.833333333333</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0.766666666667</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.733333333333</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.783333333333</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.716666666667</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.683333333333</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.733333333333</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.733333333333</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.766666666667</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.766666666667</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.766666666667</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.65</c:v>
-                </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.65</c:v>
+                  <c:v>0.716666666667</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.7</c:v>
+                  <c:v>0.716666666667</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.7</c:v>
+                  <c:v>0.716666666667</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.65</c:v>
+                  <c:v>0.716666666667</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.65</c:v>
+                  <c:v>0.716666666667</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.65</c:v>
+                  <c:v>0.716666666667</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.7</c:v>
+                  <c:v>0.716666666667</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.716666666667</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.666666666667</c:v>
+                  <c:v>0.716666666667</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.716666666667</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.666666666667</c:v>
+                  <c:v>0.716666666667</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.666666666667</c:v>
+                  <c:v>0.716666666667</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.716666666667</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.666666666667</c:v>
+                  <c:v>0.716666666667</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.666666666667</c:v>
+                  <c:v>0.716666666667</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.733333333333</c:v>
+                  <c:v>0.716666666667</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.733333333333</c:v>
+                  <c:v>0.716666666667</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.733333333333</c:v>
+                  <c:v>0.716666666667</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.733333333333</c:v>
+                  <c:v>0.716666666667</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.783333333333</c:v>
+                  <c:v>0.716666666667</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.733333333333</c:v>
+                  <c:v>0.716666666667</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.733333333333</c:v>
+                  <c:v>0.716666666667</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.733333333333</c:v>
+                  <c:v>0.716666666667</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.733333333333</c:v>
+                  <c:v>0.716666666667</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.733333333333</c:v>
+                  <c:v>0.716666666667</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.733333333333</c:v>
+                  <c:v>0.716666666667</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.783333333333</c:v>
+                  <c:v>0.716666666667</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.783333333333</c:v>
+                  <c:v>0.716666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1024,11 +1044,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1752377920"/>
-        <c:axId val="-1710185936"/>
+        <c:axId val="-965610784"/>
+        <c:axId val="-966361840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1752377920"/>
+        <c:axId val="-965610784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="2.0"/>
@@ -1146,12 +1166,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1710185936"/>
+        <c:crossAx val="-966361840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1710185936"/>
+        <c:axId val="-966361840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1266,7 +1286,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1752377920"/>
+        <c:crossAx val="-965610784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1529,21 +1549,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048576"/>
-                <c:pt idx="1">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>37.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>49.0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1553,21 +1558,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048576"/>
-                <c:pt idx="1">
-                  <c:v>0.733333333</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.766666667</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.666666667</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.666666667</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1609,19 +1599,19 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.0</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.0</c:v>
+                  <c:v>37.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>49.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1633,20 +1623,20 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.733333333</c:v>
+                  <c:v>0.716666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.766666667</c:v>
+                  <c:v>0.616666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.666666667</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.666666667</c:v>
+                  <c:v>0.616666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1689,19 +1679,19 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.0</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.0</c:v>
+                  <c:v>37.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>49.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1713,20 +1703,20 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>0.85</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.783333333333</c:v>
+                  <c:v>0.716666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.75</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.766666666667</c:v>
+                  <c:v>0.616666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.666666666667</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.666666666667</c:v>
+                  <c:v>0.616666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1741,11 +1731,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1790389216"/>
-        <c:axId val="-1788301568"/>
+        <c:axId val="-965599344"/>
+        <c:axId val="-1009119648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1790389216"/>
+        <c:axId val="-965599344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1858,15 +1848,1866 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1788301568"/>
+        <c:crossAx val="-1009119648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1788301568"/>
+        <c:axId val="-1009119648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-965599344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.826450189155107"/>
+          <c:y val="0.32053712760776"/>
+          <c:w val="0.1609394703657"/>
+          <c:h val="0.243236058121601"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Size of Tree</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>size</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'accuracy-size'!$A:$A</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>33.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'accuracy-size'!$B:$B</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.733333333333</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.833333333333</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.833333333333</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.833333333333</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.833333333333</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.833333333333</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.833333333333</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.833333333333</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.833333333333</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.833333333333</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.833333333333</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.883333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-966290496"/>
+        <c:axId val="-966287840"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-966290496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Size of tree </a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>(number of nodes)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-966287840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-966287840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-966290496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Size of Tree</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>size</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'accuracy-size'!$A:$A</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>33.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'accuracy-size'!$B:$B</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.616666666667</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.716666666667</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.733333333333</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.833333333333</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.833333333333</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.833333333333</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.833333333333</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.833333333333</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.833333333333</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.833333333333</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.833333333333</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.833333333333</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.833333333333</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.883333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-801033680"/>
+        <c:axId val="-801035728"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-801033680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Size</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t> of tree</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>(number of nodes)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-801035728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-801035728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
           <c:min val="0.5"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1977,7 +3818,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1790389216"/>
+        <c:crossAx val="-801033680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1989,38 +3830,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2040,1512 +3849,6 @@
     </a:ln>
     <a:effectLst/>
   </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" b="1"/>
-              <a:t>Minimum samples</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> in nodes with mininimum samples in leafs</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" b="1"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>50_samples_nodes</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>min_samples_nodes_leaf!$AA:$AA</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1048576"/>
-                <c:pt idx="1">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>37.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>49.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>min_samples_nodes_leaf!$AB:$AB</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1048576"/>
-                <c:pt idx="1">
-                  <c:v>0.783333333333</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.733333333333</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.816666666667</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.666666666667</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.666666666667</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>26_samples_nodes</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>min_samples_nodes_leaf!$Q:$Q</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1048576"/>
-                <c:pt idx="1">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>37.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>49.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>min_samples_nodes_leaf!$R:$R</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1048576"/>
-                <c:pt idx="1">
-                  <c:v>0.733333333</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.766666667</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.666666667</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.666666667</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>14_samples_nodes</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="FFFF00"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>min_samples_nodes_leaf!$K:$K</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1048576"/>
-                <c:pt idx="1">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>37.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>49.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>min_samples_nodes_leaf!$L:$L</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1048576"/>
-                <c:pt idx="1">
-                  <c:v>0.733333333</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.766666667</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.666666667</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.666666667</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>2_samples_nodes</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="00B050"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>min_samples_nodes_leaf!$B:$B</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1048576"/>
-                <c:pt idx="1">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>37.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>49.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>min_samples_nodes_leaf!$C:$C</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1048576"/>
-                <c:pt idx="1">
-                  <c:v>0.783333333333</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.766666666667</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.666666666667</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.666666666667</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="-1708089312"/>
-        <c:axId val="-1704477264"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="-1708089312"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="1.0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Minimum Samples in Leafs</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1704477264"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="-1704477264"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1.0"/>
-          <c:min val="0.5"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Accuracy</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1708089312"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" b="1"/>
-              <a:t>Size of Tree</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>size</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'accuracy-size'!$A:$A</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1048576"/>
-                <c:pt idx="0">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>23.0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>23.0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>27.0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>29.0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>29.0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>29.0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>31.0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>33.0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>33.0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>33.0</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>35.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'accuracy-size'!$B:$B</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1048576"/>
-                <c:pt idx="0">
-                  <c:v>0.666666666667</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.666666666667</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.666666666667</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.666666666667</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.666666666667</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.666666666667</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.666666666667</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.666666666667</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.666666666667</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.666666666667</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.666666666667</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.666666666667</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.666666666667</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.666666666667</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.666666666667</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.666666666667</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.666666666667</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.666666666667</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.666666666667</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.666666666667</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.666666666667</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.666666666667</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.666666666667</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.666666666667</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.666666666667</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.666666666667</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.666666666667</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.666666666667</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.666666666667</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.666666666667</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.666666666667</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.666666666667</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.666666666667</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.666666666667</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.666666666667</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.666666666667</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.783333333333</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.783333333333</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.733333333333</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.783333333333</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.783333333333</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.783333333333</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.733333333333</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.783333333333</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.783333333333</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.733333333333</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.783333333333</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.783333333333</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.733333333333</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.733333333333</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.783333333333</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.733333333333</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.733333333333</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.783333333333</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.733333333333</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.716666666667</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.716666666667</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.666666666667</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.666666666667</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.666666666667</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.666666666667</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.716666666667</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.666666666667</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.666666666667</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.716666666667</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.716666666667</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.666666666667</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.666666666667</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.666666666667</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.666666666667</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.666666666667</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.666666666667</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.783333333333</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.783333333333</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.733333333333</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.783333333333</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.733333333333</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.783333333333</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.733333333333</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.733333333333</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.733333333333</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.733333333333</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.733333333333</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.733333333333</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.783333333333</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.783333333333</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.733333333333</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.683333333333</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.683333333333</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.716666666667</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.833333333333</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.833333333333</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.833333333333</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.816666666667</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.816666666667</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.866666666667</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="-1790751232"/>
-        <c:axId val="-1790346480"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="-1790751232"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Size of tree </a:t>
-                </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>(number of nodes)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1790346480"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="-1790346480"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1.0"/>
-          <c:min val="0.5"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Accuracy</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1790751232"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -5299,36 +5602,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>142240</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>132080</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>772160</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>10160</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5337,15 +5610,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>133864</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>91531</xdr:rowOff>
+      <xdr:colOff>76657</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57207</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>652162</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>158807</xdr:rowOff>
+      <xdr:colOff>594955</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>124483</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5364,30 +5637,64 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>53774</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>12814</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>11440</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>11441</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="min_nodes_1" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="min_nodes" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="min_leaf" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="min_leaf_2" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="min_nodes_leaf_2" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="min_nodes_leaf" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="min_nodes_leaf_1" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="min_nodes_leaf_1" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="dt_size_3" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="min_nodes_leaf_2" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="dt_size" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="dt_size_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
@@ -5657,7 +5964,7 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D49"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5665,7 +5972,7 @@
     <col min="1" max="1" width="3.1640625" customWidth="1"/>
     <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -5675,13 +5982,13 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>0.81666666666700005</v>
+        <v>0.83333333333299997</v>
       </c>
       <c r="C1">
         <v>2</v>
       </c>
       <c r="D1">
-        <v>0.83333333333299997</v>
+        <v>0.88333333333300001</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5703,13 +6010,13 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.86666666666699999</v>
+        <v>0.83333333333299997</v>
       </c>
       <c r="C3">
         <v>4</v>
       </c>
       <c r="D3">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -5723,7 +6030,7 @@
         <v>5</v>
       </c>
       <c r="D4">
-        <v>0.76666666666700001</v>
+        <v>0.81666666666700005</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5731,13 +6038,13 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.76666666666700001</v>
+        <v>0.85</v>
       </c>
       <c r="C5">
         <v>6</v>
       </c>
       <c r="D5">
-        <v>0.8</v>
+        <v>0.83333333333299997</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -5745,13 +6052,13 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.7</v>
+        <v>0.83333333333299997</v>
       </c>
       <c r="C6">
         <v>7</v>
       </c>
       <c r="D6">
-        <v>0.73333333333299999</v>
+        <v>0.83333333333299997</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -5759,13 +6066,13 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.66666666666700003</v>
+        <v>0.85</v>
       </c>
       <c r="C7">
         <v>8</v>
       </c>
       <c r="D7">
-        <v>0.8</v>
+        <v>0.83333333333299997</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -5773,13 +6080,13 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.65</v>
+        <v>0.81666666666700005</v>
       </c>
       <c r="C8">
         <v>9</v>
       </c>
       <c r="D8">
-        <v>0.85</v>
+        <v>0.83333333333299997</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -5787,13 +6094,13 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.65</v>
+        <v>0.81666666666700005</v>
       </c>
       <c r="C9">
         <v>10</v>
       </c>
       <c r="D9">
-        <v>0.8</v>
+        <v>0.83333333333299997</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -5801,13 +6108,13 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.7</v>
+        <v>0.76666666666700001</v>
       </c>
       <c r="C10">
         <v>11</v>
       </c>
       <c r="D10">
-        <v>0.78333333333300004</v>
+        <v>0.83333333333299997</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -5815,13 +6122,13 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.65</v>
+        <v>0.71666666666699996</v>
       </c>
       <c r="C11">
         <v>12</v>
       </c>
       <c r="D11">
-        <v>0.71666666666699996</v>
+        <v>0.83333333333299997</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -5829,13 +6136,13 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.7</v>
+        <v>0.71666666666699996</v>
       </c>
       <c r="C12">
         <v>13</v>
       </c>
       <c r="D12">
-        <v>0.68333333333299995</v>
+        <v>0.83333333333299997</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -5843,13 +6150,13 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.7</v>
+        <v>0.71666666666699996</v>
       </c>
       <c r="C13">
         <v>14</v>
       </c>
       <c r="D13">
-        <v>0.65</v>
+        <v>0.83333333333299997</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -5857,13 +6164,13 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.7</v>
+        <v>0.71666666666699996</v>
       </c>
       <c r="C14">
         <v>15</v>
       </c>
       <c r="D14">
-        <v>0.73333333333299999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -5871,13 +6178,13 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.78333333333300004</v>
+        <v>0.71666666666699996</v>
       </c>
       <c r="C15">
         <v>16</v>
       </c>
       <c r="D15">
-        <v>0.73333333333299999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -5885,13 +6192,13 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>0.78333333333300004</v>
+        <v>0.71666666666699996</v>
       </c>
       <c r="C16">
         <v>17</v>
       </c>
       <c r="D16">
-        <v>0.76666666666700001</v>
+        <v>0.83333333333299997</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -5899,13 +6206,13 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0.73333333333299999</v>
+        <v>0.71666666666699996</v>
       </c>
       <c r="C17">
         <v>18</v>
       </c>
       <c r="D17">
-        <v>0.76666666666700001</v>
+        <v>0.83333333333299997</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -5913,13 +6220,13 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0.73333333333299999</v>
+        <v>0.71666666666699996</v>
       </c>
       <c r="C18">
         <v>19</v>
       </c>
       <c r="D18">
-        <v>0.76666666666700001</v>
+        <v>0.83333333333299997</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -5927,13 +6234,13 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.78333333333300004</v>
+        <v>0.71666666666699996</v>
       </c>
       <c r="C19">
         <v>20</v>
       </c>
       <c r="D19">
-        <v>0.7</v>
+        <v>0.83333333333299997</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -5941,13 +6248,13 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>0.73333333333299999</v>
+        <v>0.71666666666699996</v>
       </c>
       <c r="C20">
         <v>21</v>
       </c>
       <c r="D20">
-        <v>0.7</v>
+        <v>0.83333333333299997</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -5955,13 +6262,13 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>0.78333333333300004</v>
+        <v>0.71666666666699996</v>
       </c>
       <c r="C21">
         <v>22</v>
       </c>
       <c r="D21">
-        <v>0.65</v>
+        <v>0.76666666666700001</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -5969,13 +6276,13 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>0.73333333333299999</v>
+        <v>0.71666666666699996</v>
       </c>
       <c r="C22">
         <v>23</v>
       </c>
       <c r="D22">
-        <v>0.65</v>
+        <v>0.71666666666699996</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -5983,13 +6290,13 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>0.81666666666700005</v>
+        <v>0.71666666666699996</v>
       </c>
       <c r="C23">
         <v>24</v>
       </c>
       <c r="D23">
-        <v>0.7</v>
+        <v>0.71666666666699996</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -5997,13 +6304,13 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>0.76666666666700001</v>
+        <v>0.7</v>
       </c>
       <c r="C24">
         <v>25</v>
       </c>
       <c r="D24">
-        <v>0.7</v>
+        <v>0.71666666666699996</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -6011,13 +6318,13 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>0.76666666666700001</v>
+        <v>0.7</v>
       </c>
       <c r="C25">
         <v>26</v>
       </c>
       <c r="D25">
-        <v>0.65</v>
+        <v>0.71666666666699996</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -6025,13 +6332,13 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>0.76666666666700001</v>
+        <v>0.61666666666699999</v>
       </c>
       <c r="C26">
         <v>27</v>
       </c>
       <c r="D26">
-        <v>0.65</v>
+        <v>0.71666666666699996</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -6039,13 +6346,13 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>0.76666666666700001</v>
+        <v>0.61666666666699999</v>
       </c>
       <c r="C27">
         <v>28</v>
       </c>
       <c r="D27">
-        <v>0.65</v>
+        <v>0.71666666666699996</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -6053,13 +6360,13 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>0.71666666666699996</v>
+        <v>0.61666666666699999</v>
       </c>
       <c r="C28">
         <v>29</v>
       </c>
       <c r="D28">
-        <v>0.7</v>
+        <v>0.71666666666699996</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -6067,7 +6374,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>0.76666666666700001</v>
+        <v>0.61666666666699999</v>
       </c>
       <c r="C29">
         <v>30</v>
@@ -6081,13 +6388,13 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>0.81666666666700005</v>
+        <v>0.61666666666699999</v>
       </c>
       <c r="C30">
         <v>31</v>
       </c>
       <c r="D30">
-        <v>0.66666666666700003</v>
+        <v>0.71666666666699996</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -6095,7 +6402,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>0.8</v>
+        <v>0.61666666666699999</v>
       </c>
       <c r="C31">
         <v>32</v>
@@ -6109,13 +6416,13 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>0.66666666666700003</v>
+        <v>0.61666666666699999</v>
       </c>
       <c r="C32">
         <v>33</v>
       </c>
       <c r="D32">
-        <v>0.66666666666700003</v>
+        <v>0.71666666666699996</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -6123,13 +6430,13 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>0.66666666666700003</v>
+        <v>0.61666666666699999</v>
       </c>
       <c r="C33">
         <v>34</v>
       </c>
       <c r="D33">
-        <v>0.66666666666700003</v>
+        <v>0.71666666666699996</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -6137,7 +6444,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>0.66666666666700003</v>
+        <v>0.61666666666699999</v>
       </c>
       <c r="C34">
         <v>35</v>
@@ -6151,13 +6458,13 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>0.66666666666700003</v>
+        <v>0.61666666666699999</v>
       </c>
       <c r="C35">
         <v>36</v>
       </c>
       <c r="D35">
-        <v>0.66666666666700003</v>
+        <v>0.71666666666699996</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -6165,13 +6472,13 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>0.66666666666700003</v>
+        <v>0.61666666666699999</v>
       </c>
       <c r="C36">
         <v>37</v>
       </c>
       <c r="D36">
-        <v>0.66666666666700003</v>
+        <v>0.71666666666699996</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -6179,13 +6486,13 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>0.66666666666700003</v>
+        <v>0.61666666666699999</v>
       </c>
       <c r="C37">
         <v>38</v>
       </c>
       <c r="D37">
-        <v>0.73333333333299999</v>
+        <v>0.71666666666699996</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -6193,13 +6500,13 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>0.66666666666700003</v>
+        <v>0.61666666666699999</v>
       </c>
       <c r="C38">
         <v>39</v>
       </c>
       <c r="D38">
-        <v>0.73333333333299999</v>
+        <v>0.71666666666699996</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -6207,13 +6514,13 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>0.66666666666700003</v>
+        <v>0.61666666666699999</v>
       </c>
       <c r="C39">
         <v>40</v>
       </c>
       <c r="D39">
-        <v>0.73333333333299999</v>
+        <v>0.71666666666699996</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -6221,13 +6528,13 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>0.66666666666700003</v>
+        <v>0.61666666666699999</v>
       </c>
       <c r="C40">
         <v>41</v>
       </c>
       <c r="D40">
-        <v>0.73333333333299999</v>
+        <v>0.71666666666699996</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -6235,13 +6542,13 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>0.66666666666700003</v>
+        <v>0.61666666666699999</v>
       </c>
       <c r="C41">
         <v>42</v>
       </c>
       <c r="D41">
-        <v>0.78333333333300004</v>
+        <v>0.71666666666699996</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -6249,13 +6556,13 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>0.66666666666700003</v>
+        <v>0.61666666666699999</v>
       </c>
       <c r="C42">
         <v>43</v>
       </c>
       <c r="D42">
-        <v>0.73333333333299999</v>
+        <v>0.71666666666699996</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -6263,13 +6570,13 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>0.66666666666700003</v>
+        <v>0.61666666666699999</v>
       </c>
       <c r="C43">
         <v>44</v>
       </c>
       <c r="D43">
-        <v>0.73333333333299999</v>
+        <v>0.71666666666699996</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -6277,13 +6584,13 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>0.66666666666700003</v>
+        <v>0.61666666666699999</v>
       </c>
       <c r="C44">
         <v>45</v>
       </c>
       <c r="D44">
-        <v>0.73333333333299999</v>
+        <v>0.71666666666699996</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -6291,13 +6598,13 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>0.66666666666700003</v>
+        <v>0.61666666666699999</v>
       </c>
       <c r="C45">
         <v>46</v>
       </c>
       <c r="D45">
-        <v>0.73333333333299999</v>
+        <v>0.71666666666699996</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -6305,13 +6612,13 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>0.66666666666700003</v>
+        <v>0.61666666666699999</v>
       </c>
       <c r="C46">
         <v>47</v>
       </c>
       <c r="D46">
-        <v>0.73333333333299999</v>
+        <v>0.71666666666699996</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -6319,13 +6626,13 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>0.66666666666700003</v>
+        <v>0.61666666666699999</v>
       </c>
       <c r="C47">
         <v>48</v>
       </c>
       <c r="D47">
-        <v>0.73333333333299999</v>
+        <v>0.71666666666699996</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -6333,13 +6640,13 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>0.66666666666700003</v>
+        <v>0.61666666666699999</v>
       </c>
       <c r="C48">
         <v>49</v>
       </c>
       <c r="D48">
-        <v>0.78333333333300004</v>
+        <v>0.71666666666699996</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -6347,13 +6654,13 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>0.66666666666700003</v>
+        <v>0.61666666666699999</v>
       </c>
       <c r="C49">
         <v>50</v>
       </c>
       <c r="D49">
-        <v>0.78333333333300004</v>
+        <v>0.71666666666699996</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -6361,7 +6668,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>0.66666666666700003</v>
+        <v>0.58333333333299997</v>
       </c>
     </row>
   </sheetData>
@@ -6372,28 +6679,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AB6"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="125" workbookViewId="0">
-      <selection activeCell="AE2" sqref="AE2:AG2"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.1640625" customWidth="1"/>
     <col min="2" max="2" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.1640625" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3.1640625" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.1640625" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3.1640625" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.1640625" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.1640625" customWidth="1"/>
-    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="3.1640625" customWidth="1"/>
-    <col min="15" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="3.1640625" customWidth="1"/>
     <col min="18" max="18" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="3.1640625" customWidth="1"/>
@@ -6512,195 +6819,260 @@
     <col min="175" max="175" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>2</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>0.85</v>
+      </c>
+      <c r="D1">
+        <v>14</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>0.83333333333299997</v>
+      </c>
+      <c r="G1">
+        <v>26</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="I1">
+        <v>0.71666666666699996</v>
+      </c>
+      <c r="J1">
+        <v>38</v>
+      </c>
+      <c r="K1">
+        <v>1</v>
+      </c>
+      <c r="L1">
+        <v>0.71666666666699996</v>
+      </c>
+      <c r="M1">
+        <v>50</v>
+      </c>
+      <c r="N1">
+        <v>1</v>
+      </c>
+      <c r="O1">
+        <v>0.71666666666699996</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C2">
-        <v>0.78333333333300004</v>
+        <v>0.71666666666699996</v>
+      </c>
+      <c r="D2">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <v>13</v>
+      </c>
+      <c r="F2">
+        <v>0.71666666666699996</v>
+      </c>
+      <c r="G2">
+        <v>26</v>
+      </c>
+      <c r="H2">
+        <v>13</v>
+      </c>
+      <c r="I2">
+        <v>0.71666666666699996</v>
       </c>
       <c r="J2" s="1">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="K2" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L2" s="1">
-        <v>0.73333333300000003</v>
-      </c>
-      <c r="P2" s="1">
-        <v>26</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>1</v>
-      </c>
-      <c r="R2" s="1">
-        <v>0.73333333300000003</v>
-      </c>
-      <c r="Z2">
+        <v>0.71666666666699996</v>
+      </c>
+      <c r="M2">
         <v>50</v>
       </c>
-      <c r="AA2">
-        <v>1</v>
-      </c>
-      <c r="AB2">
-        <v>0.78333333333300004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="N2">
+        <v>13</v>
+      </c>
+      <c r="O2">
+        <v>0.71666666666699996</v>
+      </c>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C3">
-        <v>0.75</v>
+        <v>0.7</v>
+      </c>
+      <c r="D3">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>25</v>
+      </c>
+      <c r="F3">
+        <v>0.7</v>
+      </c>
+      <c r="G3">
+        <v>26</v>
+      </c>
+      <c r="H3">
+        <v>25</v>
+      </c>
+      <c r="I3">
+        <v>0.7</v>
       </c>
       <c r="J3" s="1">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="K3" s="1">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="L3" s="1">
         <v>0.7</v>
       </c>
-      <c r="P3" s="1">
-        <v>26</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>13</v>
-      </c>
-      <c r="R3" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="Z3">
+      <c r="M3">
         <v>50</v>
       </c>
-      <c r="AA3">
-        <v>13</v>
-      </c>
-      <c r="AB3">
-        <v>0.73333333333299999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="N3">
+        <v>25</v>
+      </c>
+      <c r="O3">
+        <v>0.7</v>
+      </c>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C4">
-        <v>0.76666666666700001</v>
+        <v>0.61666666666699999</v>
+      </c>
+      <c r="D4">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>37</v>
+      </c>
+      <c r="F4">
+        <v>0.61666666666699999</v>
+      </c>
+      <c r="G4">
+        <v>26</v>
+      </c>
+      <c r="H4">
+        <v>37</v>
+      </c>
+      <c r="I4">
+        <v>0.61666666666699999</v>
       </c>
       <c r="J4" s="1">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="K4" s="1">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="L4" s="1">
-        <v>0.76666666699999997</v>
-      </c>
-      <c r="P4" s="1">
-        <v>26</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>25</v>
-      </c>
-      <c r="R4" s="1">
-        <v>0.76666666699999997</v>
-      </c>
-      <c r="Z4">
+        <v>0.61666666666699999</v>
+      </c>
+      <c r="M4">
         <v>50</v>
       </c>
-      <c r="AA4">
-        <v>25</v>
-      </c>
-      <c r="AB4">
-        <v>0.81666666666700005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="N4">
+        <v>37</v>
+      </c>
+      <c r="O4">
+        <v>0.61666666666699999</v>
+      </c>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C5">
-        <v>0.66666666666700003</v>
+        <v>0.61666666666699999</v>
+      </c>
+      <c r="D5">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>49</v>
+      </c>
+      <c r="F5">
+        <v>0.61666666666699999</v>
+      </c>
+      <c r="G5">
+        <v>26</v>
+      </c>
+      <c r="H5">
+        <v>49</v>
+      </c>
+      <c r="I5">
+        <v>0.61666666666699999</v>
       </c>
       <c r="J5" s="1">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="K5" s="1">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="L5" s="1">
-        <v>0.66666666699999999</v>
-      </c>
-      <c r="P5" s="1">
-        <v>26</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>37</v>
-      </c>
-      <c r="R5" s="1">
-        <v>0.66666666699999999</v>
-      </c>
-      <c r="Z5">
+        <v>0.61666666666699999</v>
+      </c>
+      <c r="M5">
         <v>50</v>
       </c>
-      <c r="AA5">
-        <v>37</v>
-      </c>
-      <c r="AB5">
-        <v>0.66666666666700003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6">
+      <c r="N5">
         <v>49</v>
       </c>
-      <c r="C6">
-        <v>0.66666666666700003</v>
-      </c>
-      <c r="J6" s="1">
-        <v>14</v>
-      </c>
-      <c r="K6" s="1">
-        <v>49</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0.66666666699999999</v>
-      </c>
-      <c r="P6" s="1">
-        <v>26</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>49</v>
-      </c>
-      <c r="R6" s="1">
-        <v>0.66666666699999999</v>
-      </c>
-      <c r="Z6">
-        <v>50</v>
-      </c>
-      <c r="AA6">
-        <v>49</v>
-      </c>
-      <c r="AB6">
-        <v>0.66666666666700003</v>
-      </c>
+      <c r="O5">
+        <v>0.61666666666699999</v>
+      </c>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6712,8 +7084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E99"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="111" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40:N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6721,8 +7093,7 @@
     <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.1640625" customWidth="1"/>
-    <col min="4" max="4" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -6730,7 +7101,7 @@
         <v>3</v>
       </c>
       <c r="B1">
-        <v>0.66666666666700003</v>
+        <v>0.61666666666699999</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -6738,7 +7109,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.66666666666700003</v>
+        <v>0.61666666666699999</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -6746,7 +7117,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.66666666666700003</v>
+        <v>0.61666666666699999</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -6754,7 +7125,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.66666666666700003</v>
+        <v>0.61666666666699999</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -6762,7 +7133,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.66666666666700003</v>
+        <v>0.61666666666699999</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -6770,7 +7141,7 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>0.66666666666700003</v>
+        <v>0.61666666666699999</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -6778,31 +7149,31 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>0.66666666666700003</v>
+        <v>0.61666666666699999</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>0.66666666666700003</v>
+        <v>0.61666666666699999</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B9">
-        <v>0.66666666666700003</v>
+        <v>0.61666666666699999</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>0.66666666666700003</v>
+        <v>0.61666666666699999</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -6810,7 +7181,7 @@
         <v>5</v>
       </c>
       <c r="B11">
-        <v>0.66666666666700003</v>
+        <v>0.61666666666699999</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -6818,7 +7189,7 @@
         <v>5</v>
       </c>
       <c r="B12">
-        <v>0.66666666666700003</v>
+        <v>0.61666666666699999</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -6826,7 +7197,7 @@
         <v>5</v>
       </c>
       <c r="B13">
-        <v>0.66666666666700003</v>
+        <v>0.61666666666699999</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -6834,7 +7205,7 @@
         <v>5</v>
       </c>
       <c r="B14">
-        <v>0.66666666666700003</v>
+        <v>0.61666666666699999</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -6842,7 +7213,7 @@
         <v>5</v>
       </c>
       <c r="B15">
-        <v>0.66666666666700003</v>
+        <v>0.61666666666699999</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -6850,7 +7221,7 @@
         <v>5</v>
       </c>
       <c r="B16">
-        <v>0.66666666666700003</v>
+        <v>0.61666666666699999</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -6858,7 +7229,7 @@
         <v>5</v>
       </c>
       <c r="B17">
-        <v>0.66666666666700003</v>
+        <v>0.61666666666699999</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -6866,7 +7237,7 @@
         <v>5</v>
       </c>
       <c r="B18">
-        <v>0.66666666666700003</v>
+        <v>0.61666666666699999</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -6874,7 +7245,7 @@
         <v>5</v>
       </c>
       <c r="B19">
-        <v>0.66666666666700003</v>
+        <v>0.61666666666699999</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -6882,7 +7253,7 @@
         <v>5</v>
       </c>
       <c r="B20">
-        <v>0.66666666666700003</v>
+        <v>0.61666666666699999</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -6890,7 +7261,7 @@
         <v>5</v>
       </c>
       <c r="B21">
-        <v>0.66666666666700003</v>
+        <v>0.61666666666699999</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -6898,7 +7269,7 @@
         <v>5</v>
       </c>
       <c r="B22">
-        <v>0.66666666666700003</v>
+        <v>0.61666666666699999</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -6906,7 +7277,7 @@
         <v>5</v>
       </c>
       <c r="B23">
-        <v>0.66666666666700003</v>
+        <v>0.61666666666699999</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -6914,7 +7285,7 @@
         <v>5</v>
       </c>
       <c r="B24">
-        <v>0.66666666666700003</v>
+        <v>0.61666666666699999</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -6922,7 +7293,7 @@
         <v>5</v>
       </c>
       <c r="B25">
-        <v>0.66666666666700003</v>
+        <v>0.61666666666699999</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -6930,7 +7301,7 @@
         <v>5</v>
       </c>
       <c r="B26">
-        <v>0.66666666666700003</v>
+        <v>0.61666666666699999</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -6938,7 +7309,7 @@
         <v>5</v>
       </c>
       <c r="B27">
-        <v>0.66666666666700003</v>
+        <v>0.61666666666699999</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -6946,7 +7317,7 @@
         <v>5</v>
       </c>
       <c r="B28">
-        <v>0.66666666666700003</v>
+        <v>0.61666666666699999</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -6954,7 +7325,7 @@
         <v>5</v>
       </c>
       <c r="B29">
-        <v>0.66666666666700003</v>
+        <v>0.61666666666699999</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -6962,7 +7333,7 @@
         <v>5</v>
       </c>
       <c r="B30">
-        <v>0.66666666666700003</v>
+        <v>0.61666666666699999</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -6970,7 +7341,7 @@
         <v>5</v>
       </c>
       <c r="B31">
-        <v>0.66666666666700003</v>
+        <v>0.61666666666699999</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -6978,7 +7349,7 @@
         <v>5</v>
       </c>
       <c r="B32">
-        <v>0.66666666666700003</v>
+        <v>0.61666666666699999</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -6986,7 +7357,7 @@
         <v>5</v>
       </c>
       <c r="B33">
-        <v>0.66666666666700003</v>
+        <v>0.61666666666699999</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -6994,7 +7365,7 @@
         <v>5</v>
       </c>
       <c r="B34">
-        <v>0.66666666666700003</v>
+        <v>0.61666666666699999</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -7002,7 +7373,7 @@
         <v>5</v>
       </c>
       <c r="B35">
-        <v>0.66666666666700003</v>
+        <v>0.61666666666699999</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -7010,119 +7381,119 @@
         <v>5</v>
       </c>
       <c r="B36">
-        <v>0.66666666666700003</v>
+        <v>0.61666666666699999</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B37">
-        <v>0.78333333333300004</v>
+        <v>0.61666666666699999</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B38">
-        <v>0.78333333333300004</v>
+        <v>0.61666666666699999</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B39">
-        <v>0.73333333333299999</v>
+        <v>0.61666666666699999</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B40">
-        <v>0.78333333333300004</v>
+        <v>0.61666666666699999</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B41">
-        <v>0.78333333333300004</v>
+        <v>0.61666666666699999</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B42">
-        <v>0.78333333333300004</v>
+        <v>0.61666666666699999</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B43">
-        <v>0.73333333333299999</v>
+        <v>0.61666666666699999</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B44">
-        <v>0.78333333333300004</v>
+        <v>0.61666666666699999</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B45">
-        <v>0.78333333333300004</v>
+        <v>0.61666666666699999</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B46">
-        <v>0.73333333333299999</v>
+        <v>0.61666666666699999</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B47">
-        <v>0.78333333333300004</v>
+        <v>0.61666666666699999</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B48">
-        <v>0.78333333333300004</v>
+        <v>0.61666666666699999</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B49">
-        <v>0.73333333333299999</v>
+        <v>0.61666666666699999</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B50">
-        <v>0.73333333333299999</v>
+        <v>0.61666666666699999</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -7130,7 +7501,7 @@
         <v>7</v>
       </c>
       <c r="B51">
-        <v>0.78333333333300004</v>
+        <v>0.71666666666699996</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -7138,31 +7509,31 @@
         <v>7</v>
       </c>
       <c r="B52">
-        <v>0.73333333333299999</v>
+        <v>0.71666666666699996</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B53">
-        <v>0.73333333333299999</v>
+        <v>0.71666666666699996</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B54">
-        <v>0.78333333333300004</v>
+        <v>0.71666666666699996</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B55">
-        <v>0.73333333333299999</v>
+        <v>0.71666666666699996</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -7186,31 +7557,31 @@
         <v>9</v>
       </c>
       <c r="B58">
-        <v>0.66666666666700003</v>
+        <v>0.71666666666699996</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B59">
-        <v>0.66666666666700003</v>
+        <v>0.71666666666699996</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B60">
-        <v>0.66666666666700003</v>
+        <v>0.71666666666699996</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B61">
-        <v>0.66666666666700003</v>
+        <v>0.71666666666699996</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -7226,7 +7597,7 @@
         <v>11</v>
       </c>
       <c r="B63">
-        <v>0.66666666666700003</v>
+        <v>0.71666666666699996</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -7234,7 +7605,7 @@
         <v>11</v>
       </c>
       <c r="B64">
-        <v>0.66666666666700003</v>
+        <v>0.71666666666699996</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -7258,108 +7629,108 @@
         <v>11</v>
       </c>
       <c r="B67">
-        <v>0.66666666666700003</v>
+        <v>0.71666666666699996</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B68">
-        <v>0.66666666666700003</v>
+        <v>0.71666666666699996</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B69">
-        <v>0.66666666666700003</v>
+        <v>0.71666666666699996</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B70">
-        <v>0.66666666666700003</v>
+        <v>0.71666666666699996</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B71">
-        <v>0.66666666666700003</v>
+        <v>0.71666666666699996</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B72">
-        <v>0.66666666666700003</v>
+        <v>0.71666666666699996</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B73">
-        <v>0.78333333333300004</v>
+        <v>0.71666666666699996</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B74">
-        <v>0.78333333333300004</v>
+        <v>0.71666666666699996</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B75">
-        <v>0.73333333333299999</v>
+        <v>0.71666666666699996</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B76">
-        <v>0.78333333333300004</v>
+        <v>0.71666666666699996</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B77">
-        <v>0.73333333333299999</v>
+        <v>0.71666666666699996</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B78">
-        <v>0.78333333333300004</v>
+        <v>0.71666666666699996</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B79">
-        <v>0.73333333333299999</v>
+        <v>0.71666666666699996</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B80">
         <v>0.73333333333299999</v>
@@ -7370,7 +7741,7 @@
         <v>21</v>
       </c>
       <c r="B81">
-        <v>0.73333333333299999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -7378,7 +7749,7 @@
         <v>21</v>
       </c>
       <c r="B82">
-        <v>0.73333333333299999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -7386,55 +7757,55 @@
         <v>21</v>
       </c>
       <c r="B83">
-        <v>0.73333333333299999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B84">
-        <v>0.73333333333299999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B85">
-        <v>0.78333333333300004</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B86">
-        <v>0.78333333333300004</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B87">
-        <v>0.73333333333299999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B88">
-        <v>0.68333333333299995</v>
+        <v>0.83333333333299997</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B89">
-        <v>0.68333333333299995</v>
+        <v>0.83333333333299997</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -7442,7 +7813,7 @@
         <v>25</v>
       </c>
       <c r="B90">
-        <v>0.71666666666699996</v>
+        <v>0.83333333333299997</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -7463,10 +7834,10 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B93">
-        <v>0.85</v>
+        <v>0.83333333333299997</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -7479,31 +7850,31 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B95">
-        <v>0.8</v>
+        <v>0.83333333333299997</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B96">
-        <v>0.81666666666700005</v>
+        <v>0.83333333333299997</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B97">
-        <v>0.81666666666700005</v>
+        <v>0.83333333333299997</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B98">
         <v>0.85</v>
@@ -7511,18 +7882,13 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B99">
-        <v>0.86666666666699999</v>
+        <v>0.88333333333300001</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B4999">
-    <sortState ref="A2:B4999">
-      <sortCondition ref="A1:A4999"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
